--- a/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.083933857509862</v>
+        <v>2.083933857509408</v>
       </c>
       <c r="C2">
-        <v>0.488820514566072</v>
+        <v>0.4888205145664131</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1294570219873599</v>
+        <v>0.1294570219874771</v>
       </c>
       <c r="F2">
-        <v>6.622874153545155</v>
+        <v>6.622874153545268</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.835666140374883</v>
+        <v>2.835666140374855</v>
       </c>
       <c r="J2">
-        <v>0.5765217897467423</v>
+        <v>0.5765217897466073</v>
       </c>
       <c r="K2">
-        <v>0.0422953262815442</v>
+        <v>0.0422953262815966</v>
       </c>
       <c r="L2">
-        <v>0.1825502567996793</v>
+        <v>0.1825502567996864</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.784591852147599</v>
+        <v>1.784591852147571</v>
       </c>
       <c r="C3">
-        <v>0.416699823769477</v>
+        <v>0.4166998237698749</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1100839439276129</v>
+        <v>0.1100839439276733</v>
       </c>
       <c r="F3">
-        <v>5.714647145322488</v>
+        <v>5.714647145322544</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>2.467514646298582</v>
       </c>
       <c r="J3">
-        <v>0.4926548342825541</v>
+        <v>0.4926548342825683</v>
       </c>
       <c r="K3">
-        <v>0.03412474543447441</v>
+        <v>0.03412474543449395</v>
       </c>
       <c r="L3">
-        <v>0.1509273485046236</v>
+        <v>0.1509273485046378</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.606860067002088</v>
+        <v>1.606860067002202</v>
       </c>
       <c r="C4">
-        <v>0.3737316417641239</v>
+        <v>0.373731641765005</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09862227412147107</v>
+        <v>0.09862227412143554</v>
       </c>
       <c r="F4">
-        <v>5.173426174289773</v>
+        <v>5.173426174289858</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>2.248391959464385</v>
       </c>
       <c r="J4">
-        <v>0.4428095956590852</v>
+        <v>0.442809595659142</v>
       </c>
       <c r="K4">
-        <v>0.02952999953856406</v>
+        <v>0.02952999953857027</v>
       </c>
       <c r="L4">
-        <v>0.1327741200465304</v>
+        <v>0.1327741200465375</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>1.535729464827682</v>
       </c>
       <c r="C5">
-        <v>0.3564969823927129</v>
+        <v>0.3564969823923718</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09404110261014154</v>
+        <v>0.09404110261007403</v>
       </c>
       <c r="F5">
-        <v>4.956287107284282</v>
+        <v>4.956287107284254</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.160516130773217</v>
+        <v>2.160516130773203</v>
       </c>
       <c r="J5">
-        <v>0.422847950982792</v>
+        <v>0.4228479509828489</v>
       </c>
       <c r="K5">
-        <v>0.02774513389036315</v>
+        <v>0.02774513389034361</v>
       </c>
       <c r="L5">
-        <v>0.1256454815510537</v>
+        <v>0.1256454815510821</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.5239904632096</v>
+        <v>1.523990463209572</v>
       </c>
       <c r="C6">
-        <v>0.353650323431566</v>
+        <v>0.3536503234317934</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09328529372315586</v>
+        <v>0.09328529372319139</v>
       </c>
       <c r="F6">
-        <v>4.920418258849594</v>
+        <v>4.92041825884948</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.146001488260254</v>
+        <v>2.146001488260225</v>
       </c>
       <c r="J6">
-        <v>0.4195527996836788</v>
+        <v>0.4195527996835722</v>
       </c>
       <c r="K6">
-        <v>0.02745355516685422</v>
+        <v>0.02745355516688708</v>
       </c>
       <c r="L6">
-        <v>0.124476729904071</v>
+        <v>0.1244767299040817</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.605895805847069</v>
+        <v>1.605895805846728</v>
       </c>
       <c r="C7">
-        <v>0.3734981625391924</v>
+        <v>0.3734981625385672</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.09856015197991752</v>
+        <v>0.0985601519798287</v>
       </c>
       <c r="F7">
-        <v>5.170484822413329</v>
+        <v>5.170484822413385</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.247201486272658</v>
+        <v>2.247201486272644</v>
       </c>
       <c r="J7">
-        <v>0.4425390446185133</v>
+        <v>0.4425390446185489</v>
       </c>
       <c r="K7">
-        <v>0.02950559629943417</v>
+        <v>0.0295055962993791</v>
       </c>
       <c r="L7">
-        <v>0.132676950987328</v>
+        <v>0.1326769509872925</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.979314262790325</v>
+        <v>1.97931426279024</v>
       </c>
       <c r="C8">
-        <v>0.4636448618835516</v>
+        <v>0.4636448618822158</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1226745915835075</v>
+        <v>0.1226745915833796</v>
       </c>
       <c r="F8">
-        <v>6.305840502095691</v>
+        <v>6.305840502095549</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.707081344005985</v>
+        <v>2.707081344005815</v>
       </c>
       <c r="J8">
-        <v>0.5472207724903342</v>
+        <v>0.5472207724903484</v>
       </c>
       <c r="K8">
-        <v>0.03937836125087024</v>
+        <v>0.03937836125082494</v>
       </c>
       <c r="L8">
-        <v>0.1713527236125714</v>
+        <v>0.1713527236125607</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.771972470001629</v>
+        <v>2.771972470002424</v>
       </c>
       <c r="C9">
-        <v>0.6538145224953098</v>
+        <v>0.6538145224949972</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1744612244223092</v>
+        <v>0.17446122442243</v>
       </c>
       <c r="F9">
-        <v>8.7016049576265</v>
+        <v>8.701604957626415</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.681337384346406</v>
+        <v>3.681337384346349</v>
       </c>
       <c r="J9">
-        <v>0.7690241700674534</v>
+        <v>0.7690241700675386</v>
       </c>
       <c r="K9">
-        <v>0.06311877503784835</v>
+        <v>0.06311877503798158</v>
       </c>
       <c r="L9">
-        <v>0.259894798642371</v>
+        <v>0.2598947986423461</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.412204262749242</v>
+        <v>3.41220426274873</v>
       </c>
       <c r="C10">
-        <v>0.8067927835234343</v>
+        <v>0.8067927835236048</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2171095366342328</v>
+        <v>0.2171095366343252</v>
       </c>
       <c r="F10">
-        <v>10.632706045406</v>
+        <v>10.63270604540594</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.471804917520103</v>
+        <v>4.471804917520018</v>
       </c>
       <c r="J10">
-        <v>0.94795730918635</v>
+        <v>0.9479573091863642</v>
       </c>
       <c r="K10">
-        <v>0.08508258036773952</v>
+        <v>0.08508258036776795</v>
       </c>
       <c r="L10">
-        <v>0.3374215013554505</v>
+        <v>0.3374215013554398</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.722280465900326</v>
+        <v>3.722280465899587</v>
       </c>
       <c r="C11">
-        <v>0.8807817304787591</v>
+        <v>0.8807817304775654</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2380805126966621</v>
+        <v>0.2380805126967829</v>
       </c>
       <c r="F11">
-        <v>11.56879972704502</v>
+        <v>11.56879972704542</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.856903565078227</v>
+        <v>4.856903565078426</v>
       </c>
       <c r="J11">
-        <v>1.034580743424897</v>
+        <v>1.034580743424868</v>
       </c>
       <c r="K11">
-        <v>0.09664095703841724</v>
+        <v>0.09664095703847231</v>
       </c>
       <c r="L11">
-        <v>0.3768641360982237</v>
+        <v>0.3768641360982343</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.843097355846282</v>
+        <v>3.843097355846623</v>
       </c>
       <c r="C12">
-        <v>0.9095996017834977</v>
+        <v>0.9095996017840662</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2463124061321054</v>
+        <v>0.2463124061320343</v>
       </c>
       <c r="F12">
-        <v>11.93386030288696</v>
+        <v>11.9338603028873</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.007446404405499</v>
+        <v>5.007446404405641</v>
       </c>
       <c r="J12">
-        <v>1.068328115922696</v>
+        <v>1.068328115922654</v>
       </c>
       <c r="K12">
-        <v>0.1013112804244294</v>
+        <v>0.1013112804243157</v>
       </c>
       <c r="L12">
-        <v>0.3925682504519479</v>
+        <v>0.3925682504519195</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.816913193646712</v>
+        <v>3.816913193647281</v>
       </c>
       <c r="C13">
-        <v>0.9033544358432835</v>
+        <v>0.9033544358414929</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2445253542060328</v>
+        <v>0.2445253542060186</v>
       </c>
       <c r="F13">
-        <v>11.85472377912384</v>
+        <v>11.85472377912396</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.974794746628589</v>
+        <v>4.974794746628703</v>
       </c>
       <c r="J13">
-        <v>1.061014350646275</v>
+        <v>1.061014350646388</v>
       </c>
       <c r="K13">
-        <v>0.1002910770216161</v>
+        <v>0.1002910770214331</v>
       </c>
       <c r="L13">
-        <v>0.3891487197537948</v>
+        <v>0.3891487197538055</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.732147444860288</v>
+        <v>3.732147444860345</v>
       </c>
       <c r="C14">
-        <v>0.8831354463167713</v>
+        <v>0.8831354463173682</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2387514910755684</v>
+        <v>0.2387514910757389</v>
       </c>
       <c r="F14">
-        <v>11.59860594918786</v>
+        <v>11.59860594918808</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.869187278217026</v>
+        <v>4.869187278217169</v>
       </c>
       <c r="J14">
-        <v>1.037336930438741</v>
+        <v>1.037336930438713</v>
       </c>
       <c r="K14">
-        <v>0.09701884077888145</v>
+        <v>0.09701884077882816</v>
       </c>
       <c r="L14">
-        <v>0.3781395925974458</v>
+        <v>0.3781395925974209</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.680692016647242</v>
+        <v>3.680692016646958</v>
       </c>
       <c r="C15">
-        <v>0.8708606138596053</v>
+        <v>0.870860613860458</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2352549292023483</v>
+        <v>0.2352549292024833</v>
       </c>
       <c r="F15">
-        <v>11.44318348010188</v>
+        <v>11.44318348010177</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.805149660742501</v>
+        <v>4.805149660742387</v>
       </c>
       <c r="J15">
-        <v>1.022963495012434</v>
+        <v>1.022963495012462</v>
       </c>
       <c r="K15">
-        <v>0.09505509254928768</v>
+        <v>0.09505509254922728</v>
       </c>
       <c r="L15">
-        <v>0.3715020189341693</v>
+        <v>0.3715020189341836</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.392374034563773</v>
+        <v>3.392374034564057</v>
       </c>
       <c r="C16">
-        <v>0.8020592918864793</v>
+        <v>0.802059291886593</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2157757650068248</v>
+        <v>0.2157757650068319</v>
       </c>
       <c r="F16">
-        <v>10.5728721439628</v>
+        <v>10.57287214396263</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.44723418428535</v>
+        <v>4.447234184285236</v>
       </c>
       <c r="J16">
-        <v>0.9424168596955695</v>
+        <v>0.9424168596955269</v>
       </c>
       <c r="K16">
-        <v>0.0843641101091297</v>
+        <v>0.0843641101091599</v>
       </c>
       <c r="L16">
-        <v>0.3349411169940382</v>
+        <v>0.3349411169940097</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.220761901404273</v>
+        <v>3.22076190140416</v>
       </c>
       <c r="C17">
-        <v>0.7610847828152316</v>
+        <v>0.7610847828150895</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2042687837369073</v>
+        <v>0.2042687837368788</v>
       </c>
       <c r="F17">
-        <v>10.05517313966254</v>
+        <v>10.05517313966277</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.234857706704901</v>
+        <v>4.234857706704958</v>
       </c>
       <c r="J17">
-        <v>0.8944655313824796</v>
+        <v>0.8944655313825649</v>
       </c>
       <c r="K17">
-        <v>0.07824926934775256</v>
+        <v>0.07824926934780052</v>
       </c>
       <c r="L17">
-        <v>0.3136866975828667</v>
+        <v>0.3136866975829058</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.123777714629114</v>
+        <v>3.123777714627465</v>
       </c>
       <c r="C18">
-        <v>0.7379192002249511</v>
+        <v>0.7379192002250932</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1977932863593708</v>
+        <v>0.1977932863592855</v>
       </c>
       <c r="F18">
-        <v>9.762662851957174</v>
+        <v>9.762662851956975</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.115029076064275</v>
+        <v>4.115029076064161</v>
       </c>
       <c r="J18">
-        <v>0.867363067454022</v>
+        <v>0.8673630674538799</v>
       </c>
       <c r="K18">
-        <v>0.07487460640604837</v>
+        <v>0.0748746064059862</v>
       </c>
       <c r="L18">
-        <v>0.3018423766740881</v>
+        <v>0.3018423766740561</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.091218103645417</v>
+        <v>3.091218103645133</v>
       </c>
       <c r="C19">
-        <v>0.7301403185014976</v>
+        <v>0.7301403185008724</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1956236635191431</v>
+        <v>0.1956236635190791</v>
       </c>
       <c r="F19">
-        <v>9.664466350497975</v>
+        <v>9.664466350497776</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.074828999757756</v>
+        <v>4.074828999757642</v>
       </c>
       <c r="J19">
-        <v>0.8582635854226623</v>
+        <v>0.858263585422705</v>
       </c>
       <c r="K19">
-        <v>0.07375470705079756</v>
+        <v>0.07375470705085441</v>
       </c>
       <c r="L19">
-        <v>0.2978931031587457</v>
+        <v>0.2978931031587813</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.238847578629816</v>
+        <v>3.238847578630271</v>
       </c>
       <c r="C20">
-        <v>0.7654039182404517</v>
+        <v>0.7654039182395707</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2054785072725522</v>
+        <v>0.2054785072725664</v>
       </c>
       <c r="F20">
-        <v>10.10972435821191</v>
+        <v>10.10972435821202</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.25721826452056</v>
+        <v>4.257218264520588</v>
       </c>
       <c r="J20">
-        <v>0.8995193268261801</v>
+        <v>0.8995193268261659</v>
       </c>
       <c r="K20">
-        <v>0.0788850338099305</v>
+        <v>0.0788850338098861</v>
       </c>
       <c r="L20">
-        <v>0.3159088046421985</v>
+        <v>0.3159088046422127</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.756946579221164</v>
+        <v>3.756946579220994</v>
       </c>
       <c r="C21">
-        <v>0.8890509905070587</v>
+        <v>0.8890509905081672</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2404389149143711</v>
+        <v>0.2404389149143071</v>
       </c>
       <c r="F21">
-        <v>11.67352526548774</v>
+        <v>11.67352526548734</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.900068987207902</v>
+        <v>4.900068987207732</v>
       </c>
       <c r="J21">
-        <v>1.044264119639337</v>
+        <v>1.044264119639251</v>
       </c>
       <c r="K21">
-        <v>0.09797136393831174</v>
+        <v>0.09797136393824424</v>
       </c>
       <c r="L21">
-        <v>0.3813508121329861</v>
+        <v>0.381350812133018</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.115824335369098</v>
+        <v>4.115824335369382</v>
       </c>
       <c r="C22">
-        <v>0.9746367142103054</v>
+        <v>0.974636714211357</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2650270219653734</v>
+        <v>0.2650270219653521</v>
       </c>
       <c r="F22">
-        <v>12.75882059002993</v>
+        <v>12.75882059002964</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.348411575212822</v>
+        <v>5.348411575212594</v>
       </c>
       <c r="J22">
-        <v>1.144501704290093</v>
+        <v>1.144501704290121</v>
       </c>
       <c r="K22">
-        <v>0.1122043746481474</v>
+        <v>0.1122043746482486</v>
       </c>
       <c r="L22">
-        <v>0.4287153276468842</v>
+        <v>0.4287153276469091</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,16 +1213,16 @@
         <v>3.92215079906515</v>
       </c>
       <c r="C23">
-        <v>0.928453339512032</v>
+        <v>0.9284533395135668</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2517179298612078</v>
+        <v>0.2517179298613641</v>
       </c>
       <c r="F23">
-        <v>12.17285044902655</v>
+        <v>12.17285044902673</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.106112906108478</v>
+        <v>5.106112906108649</v>
       </c>
       <c r="J23">
-        <v>1.090408826469883</v>
+        <v>1.090408826469854</v>
       </c>
       <c r="K23">
-        <v>0.1044184969321975</v>
+        <v>0.1044184969321726</v>
       </c>
       <c r="L23">
-        <v>0.4029462394749324</v>
+        <v>0.4029462394749288</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.230665867145433</v>
+        <v>3.230665867144808</v>
       </c>
       <c r="C24">
-        <v>0.76345003060203</v>
+        <v>0.7634500306014615</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2049311597587362</v>
+        <v>0.2049311597586083</v>
       </c>
       <c r="F24">
-        <v>10.08504596335268</v>
+        <v>10.08504596335234</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.247102062283602</v>
+        <v>4.247102062283318</v>
       </c>
       <c r="J24">
-        <v>0.8972330701982685</v>
+        <v>0.8972330701982969</v>
       </c>
       <c r="K24">
-        <v>0.07859717084517115</v>
+        <v>0.07859717084518181</v>
       </c>
       <c r="L24">
-        <v>0.3149030335486493</v>
+        <v>0.3149030335486529</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.549150829464679</v>
+        <v>2.549150829465134</v>
       </c>
       <c r="C25">
-        <v>0.6004699181578417</v>
+        <v>0.6004699181578701</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1598025534815335</v>
+        <v>0.1598025534815051</v>
       </c>
       <c r="F25">
-        <v>8.029222744718965</v>
+        <v>8.029222744718879</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.407260414855969</v>
+        <v>3.407260414855926</v>
       </c>
       <c r="J25">
-        <v>0.7067129534701309</v>
+        <v>0.7067129534700598</v>
       </c>
       <c r="K25">
-        <v>0.05606278648704865</v>
+        <v>0.05606278648692609</v>
       </c>
       <c r="L25">
-        <v>0.2341577517301872</v>
+        <v>0.2341577517301374</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.083933857509408</v>
+        <v>2.083933857509862</v>
       </c>
       <c r="C2">
-        <v>0.4888205145664131</v>
+        <v>0.488820514566072</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1294570219874771</v>
+        <v>0.1294570219873599</v>
       </c>
       <c r="F2">
-        <v>6.622874153545268</v>
+        <v>6.622874153545155</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.835666140374855</v>
+        <v>2.835666140374883</v>
       </c>
       <c r="J2">
-        <v>0.5765217897466073</v>
+        <v>0.5765217897467423</v>
       </c>
       <c r="K2">
-        <v>0.0422953262815966</v>
+        <v>0.0422953262815442</v>
       </c>
       <c r="L2">
-        <v>0.1825502567996864</v>
+        <v>0.1825502567996793</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.784591852147571</v>
+        <v>1.784591852147599</v>
       </c>
       <c r="C3">
-        <v>0.4166998237698749</v>
+        <v>0.416699823769477</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1100839439276733</v>
+        <v>0.1100839439276129</v>
       </c>
       <c r="F3">
-        <v>5.714647145322544</v>
+        <v>5.714647145322488</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>2.467514646298582</v>
       </c>
       <c r="J3">
-        <v>0.4926548342825683</v>
+        <v>0.4926548342825541</v>
       </c>
       <c r="K3">
-        <v>0.03412474543449395</v>
+        <v>0.03412474543447441</v>
       </c>
       <c r="L3">
-        <v>0.1509273485046378</v>
+        <v>0.1509273485046236</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.606860067002202</v>
+        <v>1.606860067002088</v>
       </c>
       <c r="C4">
-        <v>0.373731641765005</v>
+        <v>0.3737316417641239</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09862227412143554</v>
+        <v>0.09862227412147107</v>
       </c>
       <c r="F4">
-        <v>5.173426174289858</v>
+        <v>5.173426174289773</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>2.248391959464385</v>
       </c>
       <c r="J4">
-        <v>0.442809595659142</v>
+        <v>0.4428095956590852</v>
       </c>
       <c r="K4">
-        <v>0.02952999953857027</v>
+        <v>0.02952999953856406</v>
       </c>
       <c r="L4">
-        <v>0.1327741200465375</v>
+        <v>0.1327741200465304</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>1.535729464827682</v>
       </c>
       <c r="C5">
-        <v>0.3564969823923718</v>
+        <v>0.3564969823927129</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09404110261007403</v>
+        <v>0.09404110261014154</v>
       </c>
       <c r="F5">
-        <v>4.956287107284254</v>
+        <v>4.956287107284282</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.160516130773203</v>
+        <v>2.160516130773217</v>
       </c>
       <c r="J5">
-        <v>0.4228479509828489</v>
+        <v>0.422847950982792</v>
       </c>
       <c r="K5">
-        <v>0.02774513389034361</v>
+        <v>0.02774513389036315</v>
       </c>
       <c r="L5">
-        <v>0.1256454815510821</v>
+        <v>0.1256454815510537</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.523990463209572</v>
+        <v>1.5239904632096</v>
       </c>
       <c r="C6">
-        <v>0.3536503234317934</v>
+        <v>0.353650323431566</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09328529372319139</v>
+        <v>0.09328529372315586</v>
       </c>
       <c r="F6">
-        <v>4.92041825884948</v>
+        <v>4.920418258849594</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.146001488260225</v>
+        <v>2.146001488260254</v>
       </c>
       <c r="J6">
-        <v>0.4195527996835722</v>
+        <v>0.4195527996836788</v>
       </c>
       <c r="K6">
-        <v>0.02745355516688708</v>
+        <v>0.02745355516685422</v>
       </c>
       <c r="L6">
-        <v>0.1244767299040817</v>
+        <v>0.124476729904071</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.605895805846728</v>
+        <v>1.605895805847069</v>
       </c>
       <c r="C7">
-        <v>0.3734981625385672</v>
+        <v>0.3734981625391924</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0985601519798287</v>
+        <v>0.09856015197991752</v>
       </c>
       <c r="F7">
-        <v>5.170484822413385</v>
+        <v>5.170484822413329</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.247201486272644</v>
+        <v>2.247201486272658</v>
       </c>
       <c r="J7">
-        <v>0.4425390446185489</v>
+        <v>0.4425390446185133</v>
       </c>
       <c r="K7">
-        <v>0.0295055962993791</v>
+        <v>0.02950559629943417</v>
       </c>
       <c r="L7">
-        <v>0.1326769509872925</v>
+        <v>0.132676950987328</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.97931426279024</v>
+        <v>1.979314262790325</v>
       </c>
       <c r="C8">
-        <v>0.4636448618822158</v>
+        <v>0.4636448618835516</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1226745915833796</v>
+        <v>0.1226745915835075</v>
       </c>
       <c r="F8">
-        <v>6.305840502095549</v>
+        <v>6.305840502095691</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.707081344005815</v>
+        <v>2.707081344005985</v>
       </c>
       <c r="J8">
-        <v>0.5472207724903484</v>
+        <v>0.5472207724903342</v>
       </c>
       <c r="K8">
-        <v>0.03937836125082494</v>
+        <v>0.03937836125087024</v>
       </c>
       <c r="L8">
-        <v>0.1713527236125607</v>
+        <v>0.1713527236125714</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.771972470002424</v>
+        <v>2.771972470001629</v>
       </c>
       <c r="C9">
-        <v>0.6538145224949972</v>
+        <v>0.6538145224953098</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.17446122442243</v>
+        <v>0.1744612244223092</v>
       </c>
       <c r="F9">
-        <v>8.701604957626415</v>
+        <v>8.7016049576265</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.681337384346349</v>
+        <v>3.681337384346406</v>
       </c>
       <c r="J9">
-        <v>0.7690241700675386</v>
+        <v>0.7690241700674534</v>
       </c>
       <c r="K9">
-        <v>0.06311877503798158</v>
+        <v>0.06311877503784835</v>
       </c>
       <c r="L9">
-        <v>0.2598947986423461</v>
+        <v>0.259894798642371</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.41220426274873</v>
+        <v>3.412204262749242</v>
       </c>
       <c r="C10">
-        <v>0.8067927835236048</v>
+        <v>0.8067927835234343</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2171095366343252</v>
+        <v>0.2171095366342328</v>
       </c>
       <c r="F10">
-        <v>10.63270604540594</v>
+        <v>10.632706045406</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.471804917520018</v>
+        <v>4.471804917520103</v>
       </c>
       <c r="J10">
-        <v>0.9479573091863642</v>
+        <v>0.94795730918635</v>
       </c>
       <c r="K10">
-        <v>0.08508258036776795</v>
+        <v>0.08508258036773952</v>
       </c>
       <c r="L10">
-        <v>0.3374215013554398</v>
+        <v>0.3374215013554505</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.722280465899587</v>
+        <v>3.722280465900326</v>
       </c>
       <c r="C11">
-        <v>0.8807817304775654</v>
+        <v>0.8807817304787591</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2380805126967829</v>
+        <v>0.2380805126966621</v>
       </c>
       <c r="F11">
-        <v>11.56879972704542</v>
+        <v>11.56879972704502</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.856903565078426</v>
+        <v>4.856903565078227</v>
       </c>
       <c r="J11">
-        <v>1.034580743424868</v>
+        <v>1.034580743424897</v>
       </c>
       <c r="K11">
-        <v>0.09664095703847231</v>
+        <v>0.09664095703841724</v>
       </c>
       <c r="L11">
-        <v>0.3768641360982343</v>
+        <v>0.3768641360982237</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.843097355846623</v>
+        <v>3.843097355846282</v>
       </c>
       <c r="C12">
-        <v>0.9095996017840662</v>
+        <v>0.9095996017834977</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2463124061320343</v>
+        <v>0.2463124061321054</v>
       </c>
       <c r="F12">
-        <v>11.9338603028873</v>
+        <v>11.93386030288696</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.007446404405641</v>
+        <v>5.007446404405499</v>
       </c>
       <c r="J12">
-        <v>1.068328115922654</v>
+        <v>1.068328115922696</v>
       </c>
       <c r="K12">
-        <v>0.1013112804243157</v>
+        <v>0.1013112804244294</v>
       </c>
       <c r="L12">
-        <v>0.3925682504519195</v>
+        <v>0.3925682504519479</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.816913193647281</v>
+        <v>3.816913193646712</v>
       </c>
       <c r="C13">
-        <v>0.9033544358414929</v>
+        <v>0.9033544358432835</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2445253542060186</v>
+        <v>0.2445253542060328</v>
       </c>
       <c r="F13">
-        <v>11.85472377912396</v>
+        <v>11.85472377912384</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.974794746628703</v>
+        <v>4.974794746628589</v>
       </c>
       <c r="J13">
-        <v>1.061014350646388</v>
+        <v>1.061014350646275</v>
       </c>
       <c r="K13">
-        <v>0.1002910770214331</v>
+        <v>0.1002910770216161</v>
       </c>
       <c r="L13">
-        <v>0.3891487197538055</v>
+        <v>0.3891487197537948</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.732147444860345</v>
+        <v>3.732147444860288</v>
       </c>
       <c r="C14">
-        <v>0.8831354463173682</v>
+        <v>0.8831354463167713</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2387514910757389</v>
+        <v>0.2387514910755684</v>
       </c>
       <c r="F14">
-        <v>11.59860594918808</v>
+        <v>11.59860594918786</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.869187278217169</v>
+        <v>4.869187278217026</v>
       </c>
       <c r="J14">
-        <v>1.037336930438713</v>
+        <v>1.037336930438741</v>
       </c>
       <c r="K14">
-        <v>0.09701884077882816</v>
+        <v>0.09701884077888145</v>
       </c>
       <c r="L14">
-        <v>0.3781395925974209</v>
+        <v>0.3781395925974458</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.680692016646958</v>
+        <v>3.680692016647242</v>
       </c>
       <c r="C15">
-        <v>0.870860613860458</v>
+        <v>0.8708606138596053</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2352549292024833</v>
+        <v>0.2352549292023483</v>
       </c>
       <c r="F15">
-        <v>11.44318348010177</v>
+        <v>11.44318348010188</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.805149660742387</v>
+        <v>4.805149660742501</v>
       </c>
       <c r="J15">
-        <v>1.022963495012462</v>
+        <v>1.022963495012434</v>
       </c>
       <c r="K15">
-        <v>0.09505509254922728</v>
+        <v>0.09505509254928768</v>
       </c>
       <c r="L15">
-        <v>0.3715020189341836</v>
+        <v>0.3715020189341693</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.392374034564057</v>
+        <v>3.392374034563773</v>
       </c>
       <c r="C16">
-        <v>0.802059291886593</v>
+        <v>0.8020592918864793</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2157757650068319</v>
+        <v>0.2157757650068248</v>
       </c>
       <c r="F16">
-        <v>10.57287214396263</v>
+        <v>10.5728721439628</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.447234184285236</v>
+        <v>4.44723418428535</v>
       </c>
       <c r="J16">
-        <v>0.9424168596955269</v>
+        <v>0.9424168596955695</v>
       </c>
       <c r="K16">
-        <v>0.0843641101091599</v>
+        <v>0.0843641101091297</v>
       </c>
       <c r="L16">
-        <v>0.3349411169940097</v>
+        <v>0.3349411169940382</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.22076190140416</v>
+        <v>3.220761901404273</v>
       </c>
       <c r="C17">
-        <v>0.7610847828150895</v>
+        <v>0.7610847828152316</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2042687837368788</v>
+        <v>0.2042687837369073</v>
       </c>
       <c r="F17">
-        <v>10.05517313966277</v>
+        <v>10.05517313966254</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.234857706704958</v>
+        <v>4.234857706704901</v>
       </c>
       <c r="J17">
-        <v>0.8944655313825649</v>
+        <v>0.8944655313824796</v>
       </c>
       <c r="K17">
-        <v>0.07824926934780052</v>
+        <v>0.07824926934775256</v>
       </c>
       <c r="L17">
-        <v>0.3136866975829058</v>
+        <v>0.3136866975828667</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.123777714627465</v>
+        <v>3.123777714629114</v>
       </c>
       <c r="C18">
-        <v>0.7379192002250932</v>
+        <v>0.7379192002249511</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1977932863592855</v>
+        <v>0.1977932863593708</v>
       </c>
       <c r="F18">
-        <v>9.762662851956975</v>
+        <v>9.762662851957174</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.115029076064161</v>
+        <v>4.115029076064275</v>
       </c>
       <c r="J18">
-        <v>0.8673630674538799</v>
+        <v>0.867363067454022</v>
       </c>
       <c r="K18">
-        <v>0.0748746064059862</v>
+        <v>0.07487460640604837</v>
       </c>
       <c r="L18">
-        <v>0.3018423766740561</v>
+        <v>0.3018423766740881</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.091218103645133</v>
+        <v>3.091218103645417</v>
       </c>
       <c r="C19">
-        <v>0.7301403185008724</v>
+        <v>0.7301403185014976</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1956236635190791</v>
+        <v>0.1956236635191431</v>
       </c>
       <c r="F19">
-        <v>9.664466350497776</v>
+        <v>9.664466350497975</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.074828999757642</v>
+        <v>4.074828999757756</v>
       </c>
       <c r="J19">
-        <v>0.858263585422705</v>
+        <v>0.8582635854226623</v>
       </c>
       <c r="K19">
-        <v>0.07375470705085441</v>
+        <v>0.07375470705079756</v>
       </c>
       <c r="L19">
-        <v>0.2978931031587813</v>
+        <v>0.2978931031587457</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.238847578630271</v>
+        <v>3.238847578629816</v>
       </c>
       <c r="C20">
-        <v>0.7654039182395707</v>
+        <v>0.7654039182404517</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2054785072725664</v>
+        <v>0.2054785072725522</v>
       </c>
       <c r="F20">
-        <v>10.10972435821202</v>
+        <v>10.10972435821191</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.257218264520588</v>
+        <v>4.25721826452056</v>
       </c>
       <c r="J20">
-        <v>0.8995193268261659</v>
+        <v>0.8995193268261801</v>
       </c>
       <c r="K20">
-        <v>0.0788850338098861</v>
+        <v>0.0788850338099305</v>
       </c>
       <c r="L20">
-        <v>0.3159088046422127</v>
+        <v>0.3159088046421985</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.756946579220994</v>
+        <v>3.756946579221164</v>
       </c>
       <c r="C21">
-        <v>0.8890509905081672</v>
+        <v>0.8890509905070587</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2404389149143071</v>
+        <v>0.2404389149143711</v>
       </c>
       <c r="F21">
-        <v>11.67352526548734</v>
+        <v>11.67352526548774</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.900068987207732</v>
+        <v>4.900068987207902</v>
       </c>
       <c r="J21">
-        <v>1.044264119639251</v>
+        <v>1.044264119639337</v>
       </c>
       <c r="K21">
-        <v>0.09797136393824424</v>
+        <v>0.09797136393831174</v>
       </c>
       <c r="L21">
-        <v>0.381350812133018</v>
+        <v>0.3813508121329861</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.115824335369382</v>
+        <v>4.115824335369098</v>
       </c>
       <c r="C22">
-        <v>0.974636714211357</v>
+        <v>0.9746367142103054</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2650270219653521</v>
+        <v>0.2650270219653734</v>
       </c>
       <c r="F22">
-        <v>12.75882059002964</v>
+        <v>12.75882059002993</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.348411575212594</v>
+        <v>5.348411575212822</v>
       </c>
       <c r="J22">
-        <v>1.144501704290121</v>
+        <v>1.144501704290093</v>
       </c>
       <c r="K22">
-        <v>0.1122043746482486</v>
+        <v>0.1122043746481474</v>
       </c>
       <c r="L22">
-        <v>0.4287153276469091</v>
+        <v>0.4287153276468842</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,16 +1213,16 @@
         <v>3.92215079906515</v>
       </c>
       <c r="C23">
-        <v>0.9284533395135668</v>
+        <v>0.928453339512032</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2517179298613641</v>
+        <v>0.2517179298612078</v>
       </c>
       <c r="F23">
-        <v>12.17285044902673</v>
+        <v>12.17285044902655</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.106112906108649</v>
+        <v>5.106112906108478</v>
       </c>
       <c r="J23">
-        <v>1.090408826469854</v>
+        <v>1.090408826469883</v>
       </c>
       <c r="K23">
-        <v>0.1044184969321726</v>
+        <v>0.1044184969321975</v>
       </c>
       <c r="L23">
-        <v>0.4029462394749288</v>
+        <v>0.4029462394749324</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.230665867144808</v>
+        <v>3.230665867145433</v>
       </c>
       <c r="C24">
-        <v>0.7634500306014615</v>
+        <v>0.76345003060203</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2049311597586083</v>
+        <v>0.2049311597587362</v>
       </c>
       <c r="F24">
-        <v>10.08504596335234</v>
+        <v>10.08504596335268</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.247102062283318</v>
+        <v>4.247102062283602</v>
       </c>
       <c r="J24">
-        <v>0.8972330701982969</v>
+        <v>0.8972330701982685</v>
       </c>
       <c r="K24">
-        <v>0.07859717084518181</v>
+        <v>0.07859717084517115</v>
       </c>
       <c r="L24">
-        <v>0.3149030335486529</v>
+        <v>0.3149030335486493</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.549150829465134</v>
+        <v>2.549150829464679</v>
       </c>
       <c r="C25">
-        <v>0.6004699181578701</v>
+        <v>0.6004699181578417</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1598025534815051</v>
+        <v>0.1598025534815335</v>
       </c>
       <c r="F25">
-        <v>8.029222744718879</v>
+        <v>8.029222744718965</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.407260414855926</v>
+        <v>3.407260414855969</v>
       </c>
       <c r="J25">
-        <v>0.7067129534700598</v>
+        <v>0.7067129534701309</v>
       </c>
       <c r="K25">
-        <v>0.05606278648692609</v>
+        <v>0.05606278648704865</v>
       </c>
       <c r="L25">
-        <v>0.2341577517301374</v>
+        <v>0.2341577517301872</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.083933857509862</v>
+        <v>2.064458535568008</v>
       </c>
       <c r="C2">
-        <v>0.488820514566072</v>
+        <v>0.4787966389902465</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1294570219873599</v>
+        <v>0.1318906447564814</v>
       </c>
       <c r="F2">
-        <v>6.622874153545155</v>
+        <v>6.617579658478519</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0008016660574079991</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.835666140374883</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5765217897467423</v>
+        <v>2.844682743792617</v>
       </c>
       <c r="K2">
-        <v>0.0422953262815442</v>
+        <v>0.5697843868744457</v>
       </c>
       <c r="L2">
-        <v>0.1825502567996793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.04346531821289634</v>
+      </c>
+      <c r="M2">
+        <v>0.179298520120291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.784591852147599</v>
+        <v>1.770220619744947</v>
       </c>
       <c r="C3">
-        <v>0.416699823769477</v>
+        <v>0.4081856602701066</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1100839439276129</v>
+        <v>0.1123845981814497</v>
       </c>
       <c r="F3">
-        <v>5.714647145322488</v>
+        <v>5.713086867711496</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008135347743998076</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.467514646298582</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4926548342825541</v>
+        <v>2.478041960780672</v>
       </c>
       <c r="K3">
-        <v>0.03412474543447441</v>
+        <v>0.4874385677922959</v>
       </c>
       <c r="L3">
-        <v>0.1509273485046236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.03520752025353957</v>
+      </c>
+      <c r="M3">
+        <v>0.1482574789955748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.606860067002088</v>
+        <v>1.595592095625761</v>
       </c>
       <c r="C4">
-        <v>0.3737316417641239</v>
+        <v>0.3661368922879262</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09862227412147107</v>
+        <v>0.1008346840901986</v>
       </c>
       <c r="F4">
-        <v>5.173426174289773</v>
+        <v>5.173996095523222</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008209275154988316</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.248391959464385</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4428095956590852</v>
+        <v>2.259753688993783</v>
       </c>
       <c r="K4">
-        <v>0.02952999953856406</v>
+        <v>0.4385189322400294</v>
       </c>
       <c r="L4">
-        <v>0.1327741200465304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.03055397481479982</v>
+      </c>
+      <c r="M4">
+        <v>0.1304532223255848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.535729464827682</v>
+        <v>1.525722971644058</v>
       </c>
       <c r="C5">
-        <v>0.3564969823927129</v>
+        <v>0.3492762831682512</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09404110261014154</v>
+        <v>0.09621600084340542</v>
       </c>
       <c r="F5">
-        <v>4.956287107284282</v>
+        <v>4.957692727325878</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008239714626925466</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.160516130773217</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.422847950982792</v>
+        <v>2.172198669028049</v>
       </c>
       <c r="K5">
-        <v>0.02774513389036315</v>
+        <v>0.4189337092649978</v>
       </c>
       <c r="L5">
-        <v>0.1256454815510537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.02874399078962586</v>
+      </c>
+      <c r="M5">
+        <v>0.1234655227779484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.5239904632096</v>
+        <v>1.514193368482836</v>
       </c>
       <c r="C6">
-        <v>0.353650323431566</v>
+        <v>0.3464917311734439</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09328529372315586</v>
+        <v>0.09545387209756839</v>
       </c>
       <c r="F6">
-        <v>4.920418258849594</v>
+        <v>4.921960908656303</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008244789320355217</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.146001488260254</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4195527996836788</v>
+        <v>2.157736243293485</v>
       </c>
       <c r="K6">
-        <v>0.02745355516685422</v>
+        <v>0.4157010510298562</v>
       </c>
       <c r="L6">
-        <v>0.124476729904071</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.02844817527441101</v>
+      </c>
+      <c r="M6">
+        <v>0.1223201181640192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.605895805847069</v>
+        <v>1.594644854356545</v>
       </c>
       <c r="C7">
-        <v>0.3734981625391924</v>
+        <v>0.3659084585981418</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.09856015197991752</v>
+        <v>0.1007720622113162</v>
       </c>
       <c r="F7">
-        <v>5.170484822413329</v>
+        <v>5.171066135204143</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008209684342936586</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.247201486272658</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4425390446185133</v>
+        <v>2.258567615204072</v>
       </c>
       <c r="K7">
-        <v>0.02950559629943417</v>
+        <v>0.4382534592598191</v>
       </c>
       <c r="L7">
-        <v>0.132676950987328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.03052923732053703</v>
+      </c>
+      <c r="M7">
+        <v>0.1303579581950203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.979314262790325</v>
+        <v>1.96160821797713</v>
       </c>
       <c r="C8">
-        <v>0.4636448618835516</v>
+        <v>0.4541439453579414</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1226745915835075</v>
+        <v>0.1250638120199596</v>
       </c>
       <c r="F8">
-        <v>6.305840502095691</v>
+        <v>6.301873017971843</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008057396707551887</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.707081344005985</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5472207724903342</v>
+        <v>2.716640989225766</v>
       </c>
       <c r="K8">
-        <v>0.03937836125087024</v>
+        <v>0.5410104779417395</v>
       </c>
       <c r="L8">
-        <v>0.1713527236125714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.04051948215291379</v>
+      </c>
+      <c r="M8">
+        <v>0.1683038822872156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.771972470001629</v>
+        <v>2.741104810710624</v>
       </c>
       <c r="C9">
-        <v>0.6538145224953098</v>
+        <v>0.6404336202955392</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1744612244223092</v>
+        <v>0.1771387431985829</v>
       </c>
       <c r="F9">
-        <v>8.7016049576265</v>
+        <v>8.686923641516586</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007764519483819399</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.681337384346406</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7690241700674534</v>
+        <v>3.686367305409021</v>
       </c>
       <c r="K9">
-        <v>0.06311877503784835</v>
+        <v>0.7588973419977521</v>
       </c>
       <c r="L9">
-        <v>0.259894798642371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.06443821055835031</v>
+      </c>
+      <c r="M9">
+        <v>0.255300847692908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.412204262749242</v>
+        <v>3.370879938084443</v>
       </c>
       <c r="C10">
-        <v>0.8067927835234343</v>
+        <v>0.790348432359707</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2171095366342328</v>
+        <v>0.2199474651965616</v>
       </c>
       <c r="F10">
-        <v>10.632706045406</v>
+        <v>10.60807966761155</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007548413723692903</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.471804917520103</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.94795730918635</v>
+        <v>4.472423143416819</v>
       </c>
       <c r="K10">
-        <v>0.08508258036773952</v>
+        <v>0.9347268017806556</v>
       </c>
       <c r="L10">
-        <v>0.3374215013554505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.08647907492398765</v>
+      </c>
+      <c r="M10">
+        <v>0.3315298886950231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.722280465900326</v>
+        <v>3.675870392085301</v>
       </c>
       <c r="C11">
-        <v>0.8807817304787591</v>
+        <v>0.8628544533371496</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2380805126966621</v>
+        <v>0.2409742639279884</v>
       </c>
       <c r="F11">
-        <v>11.56879972704502</v>
+        <v>11.53885407919228</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007448587764351754</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.856903565078227</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.034580743424897</v>
+        <v>4.855110408096095</v>
       </c>
       <c r="K11">
-        <v>0.09664095703841724</v>
+        <v>1.019843419695391</v>
       </c>
       <c r="L11">
-        <v>0.3768641360982237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.09805217813548417</v>
+      </c>
+      <c r="M11">
+        <v>0.3703144315811535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.843097355846282</v>
+        <v>3.794695012158058</v>
       </c>
       <c r="C12">
-        <v>0.9095996017834977</v>
+        <v>0.8910927586272521</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2463124061321054</v>
+        <v>0.2492239968927592</v>
       </c>
       <c r="F12">
-        <v>11.93386030288696</v>
+        <v>11.90174190687139</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.000741042337909476</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.007446404405499</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.068328115922696</v>
+        <v>5.004660352930898</v>
       </c>
       <c r="K12">
-        <v>0.1013112804244294</v>
+        <v>1.053001019560682</v>
       </c>
       <c r="L12">
-        <v>0.3925682504519479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.1027239727654319</v>
+      </c>
+      <c r="M12">
+        <v>0.3857554690583918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.816913193646712</v>
+        <v>3.768943252396127</v>
       </c>
       <c r="C13">
-        <v>0.9033544358432835</v>
+        <v>0.8849733155267359</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2445253542060328</v>
+        <v>0.247433267328546</v>
       </c>
       <c r="F13">
-        <v>11.85472377912384</v>
+        <v>11.82308126931093</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.000741866158990572</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.974794746628589</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.061014350646275</v>
+        <v>4.97222651943693</v>
       </c>
       <c r="K13">
-        <v>0.1002910770216161</v>
+        <v>1.045815234267963</v>
       </c>
       <c r="L13">
-        <v>0.3891487197537948</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.1017036600019541</v>
+      </c>
+      <c r="M13">
+        <v>0.3823932973530191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.732147444860288</v>
+        <v>3.685574930299367</v>
       </c>
       <c r="C14">
-        <v>0.8831354463167713</v>
+        <v>0.8651608849356762</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2387514910755684</v>
+        <v>0.2416467823128983</v>
       </c>
       <c r="F14">
-        <v>11.59860594918786</v>
+        <v>11.56848504055461</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007445456181524543</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.869187278217026</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.037336930438741</v>
+        <v>4.867314188604979</v>
       </c>
       <c r="K14">
-        <v>0.09701884077888145</v>
+        <v>1.022551508608586</v>
       </c>
       <c r="L14">
-        <v>0.3781395925974458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.09843027395191584</v>
+      </c>
+      <c r="M14">
+        <v>0.3715685521281031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.680692016647242</v>
+        <v>3.634966137413812</v>
       </c>
       <c r="C15">
-        <v>0.8708606138596053</v>
+        <v>0.8531325522258442</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2352549292023483</v>
+        <v>0.2381420280190838</v>
       </c>
       <c r="F15">
-        <v>11.44318348010188</v>
+        <v>11.41397235003365</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007461816525825394</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.805149660742501</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.022963495012434</v>
+        <v>4.803691188604006</v>
       </c>
       <c r="K15">
-        <v>0.09505509254928768</v>
+        <v>1.008428779459479</v>
       </c>
       <c r="L15">
-        <v>0.3715020189341693</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.09646524239080279</v>
+      </c>
+      <c r="M15">
+        <v>0.3650419610570523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.392374034563773</v>
+        <v>3.351373966537665</v>
       </c>
       <c r="C16">
-        <v>0.8020592918864793</v>
+        <v>0.7857096518384026</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2157757650068248</v>
+        <v>0.2186096375343354</v>
       </c>
       <c r="F16">
-        <v>10.5728721439628</v>
+        <v>10.54857399919518</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007554895528864098</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.44723418428535</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9424168596955695</v>
+        <v>4.448000199135009</v>
       </c>
       <c r="K16">
-        <v>0.0843641101091297</v>
+        <v>0.9292824850626431</v>
       </c>
       <c r="L16">
-        <v>0.3349411169940382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.08575914376822702</v>
+      </c>
+      <c r="M16">
+        <v>0.329090830463624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.220761901404273</v>
+        <v>3.182565018061268</v>
       </c>
       <c r="C17">
-        <v>0.7610847828152316</v>
+        <v>0.7455547023879774</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2042687837369073</v>
+        <v>0.2070651289722321</v>
       </c>
       <c r="F17">
-        <v>10.05517313966254</v>
+        <v>10.03365888272816</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007611515934529341</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.234857706704901</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8944655313824796</v>
+        <v>4.23687184239671</v>
       </c>
       <c r="K17">
-        <v>0.07824926934775256</v>
+        <v>0.8821625214152107</v>
       </c>
       <c r="L17">
-        <v>0.3136866975828667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.07962913475503974</v>
+      </c>
+      <c r="M17">
+        <v>0.3081906500949572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.123777714629114</v>
+        <v>3.087163629576708</v>
       </c>
       <c r="C18">
-        <v>0.7379192002249511</v>
+        <v>0.722852487971636</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1977932863593708</v>
+        <v>0.200566499316416</v>
       </c>
       <c r="F18">
-        <v>9.762662851957174</v>
+        <v>9.742678376230373</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007643950009496121</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.115029076064275</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.867363067454022</v>
+        <v>4.117724695132978</v>
       </c>
       <c r="K18">
-        <v>0.07487460640604837</v>
+        <v>0.8555297174588219</v>
       </c>
       <c r="L18">
-        <v>0.3018423766740881</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.07624392800032531</v>
+      </c>
+      <c r="M18">
+        <v>0.2965440166549591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.091218103645417</v>
+        <v>3.05513533985345</v>
       </c>
       <c r="C19">
-        <v>0.7301403185014976</v>
+        <v>0.7152292483455653</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1956236635191431</v>
+        <v>0.1983887981118002</v>
       </c>
       <c r="F19">
-        <v>9.664466350497975</v>
+        <v>9.644988646543453</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007654912695500961</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.074828999757756</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8582635854226623</v>
+        <v>4.077749636186951</v>
       </c>
       <c r="K19">
-        <v>0.07375470705079756</v>
+        <v>0.846587930859144</v>
       </c>
       <c r="L19">
-        <v>0.2978931031587457</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.07512017424757644</v>
+      </c>
+      <c r="M19">
+        <v>0.2926607373834642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.238847578629816</v>
+        <v>3.200355464955123</v>
       </c>
       <c r="C20">
-        <v>0.7654039182404517</v>
+        <v>0.7497874565385132</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2054785072725522</v>
+        <v>0.2082790123808564</v>
       </c>
       <c r="F20">
-        <v>10.10972435821191</v>
+        <v>10.08792141180405</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007605503242354809</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.25721826452056</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8995193268261801</v>
+        <v>4.259103433802579</v>
       </c>
       <c r="K20">
-        <v>0.0788850338099305</v>
+        <v>0.8871287325932968</v>
       </c>
       <c r="L20">
-        <v>0.3159088046421985</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.0802667091474234</v>
+      </c>
+      <c r="M20">
+        <v>0.3103757001590637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.756946579221164</v>
+        <v>3.709965594794824</v>
       </c>
       <c r="C21">
-        <v>0.8890509905070587</v>
+        <v>0.8709575518849988</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2404389149143711</v>
+        <v>0.2433380116983628</v>
       </c>
       <c r="F21">
-        <v>11.67352526548774</v>
+        <v>11.6429621671673</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007437597134527326</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.900068987207902</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.044264119639337</v>
+        <v>4.897994099111031</v>
       </c>
       <c r="K21">
-        <v>0.09797136393831174</v>
+        <v>1.029357759759776</v>
       </c>
       <c r="L21">
-        <v>0.3813508121329861</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.09938325844822415</v>
+      </c>
+      <c r="M21">
+        <v>0.3747260318013161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.115824335369098</v>
+        <v>4.062893919124463</v>
       </c>
       <c r="C22">
-        <v>0.9746367142103054</v>
+        <v>0.9548155739570063</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2650270219653734</v>
+        <v>0.2679705981348377</v>
       </c>
       <c r="F22">
-        <v>12.75882059002993</v>
+        <v>12.7215732961522</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007325651010189524</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.348411575212822</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.144501704290093</v>
+        <v>5.343266420945099</v>
       </c>
       <c r="K22">
-        <v>0.1122043746481474</v>
+        <v>1.127835236389046</v>
       </c>
       <c r="L22">
-        <v>0.4287153276468842</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.113611076361094</v>
+      </c>
+      <c r="M22">
+        <v>0.4212929411367092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.92215079906515</v>
+        <v>3.872440682153865</v>
       </c>
       <c r="C23">
-        <v>0.928453339512032</v>
+        <v>0.9095664819695344</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2517179298612078</v>
+        <v>0.2546399851087315</v>
       </c>
       <c r="F23">
-        <v>12.17285044902655</v>
+        <v>12.13927812017124</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.000738565920112224</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.106112906108478</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.090408826469883</v>
+        <v>5.102660179553425</v>
       </c>
       <c r="K23">
-        <v>0.1044184969321975</v>
+        <v>1.074694745568621</v>
       </c>
       <c r="L23">
-        <v>0.4029462394749324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.1058308042417924</v>
+      </c>
+      <c r="M23">
+        <v>0.3959590860599178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.230665867145433</v>
+        <v>3.192307315434277</v>
       </c>
       <c r="C24">
-        <v>0.76345003060203</v>
+        <v>0.7478726458288634</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2049311597587362</v>
+        <v>0.2077297889823626</v>
       </c>
       <c r="F24">
-        <v>10.08504596335268</v>
+        <v>10.06337375064942</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007608221940907768</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.247102062283602</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8972330701982685</v>
+        <v>4.249045648154805</v>
       </c>
       <c r="K24">
-        <v>0.07859717084517115</v>
+        <v>0.8848820982842369</v>
       </c>
       <c r="L24">
-        <v>0.3149030335486493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.07997803351186938</v>
+      </c>
+      <c r="M24">
+        <v>0.3093867008391769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.549150829464679</v>
+        <v>2.521939607310571</v>
       </c>
       <c r="C25">
-        <v>0.6004699181578417</v>
+        <v>0.58816442278831</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1598025534815335</v>
+        <v>0.1624096558719863</v>
       </c>
       <c r="F25">
-        <v>8.029222744718965</v>
+        <v>8.017715016268596</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007843540308393764</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.407260414855969</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7067129534701309</v>
+        <v>3.413662380887445</v>
       </c>
       <c r="K25">
-        <v>0.05606278648704865</v>
+        <v>0.6976730958515702</v>
       </c>
       <c r="L25">
-        <v>0.2341577517301872</v>
+        <v>0.05734134985003259</v>
+      </c>
+      <c r="M25">
+        <v>0.2300019095385331</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.064458535568008</v>
+        <v>3.231327799058533</v>
       </c>
       <c r="C2">
-        <v>0.4787966389902465</v>
+        <v>0.5365568285087647</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1318906447564814</v>
+        <v>0.02745124846452018</v>
       </c>
       <c r="F2">
-        <v>6.617579658478519</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008016660574079991</v>
+        <v>0.0008091646987097173</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.844682743792617</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5697843868744457</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.04346531821289634</v>
+        <v>0.1487635537141188</v>
       </c>
       <c r="M2">
-        <v>0.179298520120291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5174615865564647</v>
+      </c>
+      <c r="N2">
+        <v>1.041739447819573</v>
+      </c>
+      <c r="O2">
+        <v>1.34498954807674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.770220619744947</v>
+        <v>2.814924487182168</v>
       </c>
       <c r="C3">
-        <v>0.4081856602701066</v>
+        <v>0.4645626993987548</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1123845981814497</v>
+        <v>0.02713211500629775</v>
       </c>
       <c r="F3">
-        <v>5.713086867711496</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008135347743998076</v>
+        <v>0.0008172556336298059</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.478041960780672</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4874385677922959</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.03520752025353957</v>
+        <v>0.1347894231749081</v>
       </c>
       <c r="M3">
-        <v>0.1482574789955748</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4534648422213579</v>
+      </c>
+      <c r="N3">
+        <v>1.10152977615919</v>
+      </c>
+      <c r="O3">
+        <v>1.250843764492885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.595592095625761</v>
+        <v>2.563654119019418</v>
       </c>
       <c r="C4">
-        <v>0.3661368922879262</v>
+        <v>0.4208809126707536</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1008346840901986</v>
+        <v>0.02694516460377239</v>
       </c>
       <c r="F4">
-        <v>5.173996095523222</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008209275154988316</v>
+        <v>0.0008223559826814862</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.259753688993783</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4385189322400294</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03055397481479982</v>
+        <v>0.1264360354925103</v>
       </c>
       <c r="M4">
-        <v>0.1304532223255848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4149028997368234</v>
+      </c>
+      <c r="N4">
+        <v>1.140061028830686</v>
+      </c>
+      <c r="O4">
+        <v>1.196393953381843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.525722971644058</v>
+        <v>2.462230002665706</v>
       </c>
       <c r="C5">
-        <v>0.3492762831682512</v>
+        <v>0.4031878096326409</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09621600084340542</v>
+        <v>0.02687097622976387</v>
       </c>
       <c r="F5">
-        <v>4.957692727325878</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008239714626925466</v>
+        <v>0.0008244692288149273</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.172198669028049</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4189337092649978</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.02874399078962586</v>
+        <v>0.1230839317531505</v>
       </c>
       <c r="M5">
-        <v>0.1234655227779484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3993514602777637</v>
+      </c>
+      <c r="N5">
+        <v>1.156201557394315</v>
+      </c>
+      <c r="O5">
+        <v>1.174976065417468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.514193368482836</v>
+        <v>2.445443444187902</v>
       </c>
       <c r="C6">
-        <v>0.3464917311734439</v>
+        <v>0.4002557203122308</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09545387209756839</v>
+        <v>0.02685877055364783</v>
       </c>
       <c r="F6">
-        <v>4.921960908656303</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0008244789320355217</v>
+        <v>0.0008248222759788463</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.157736243293485</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4157010510298562</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.02844817527441101</v>
+        <v>0.1225303158978903</v>
       </c>
       <c r="M6">
-        <v>0.1223201181640192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3967784024195069</v>
+      </c>
+      <c r="N6">
+        <v>1.158907656059647</v>
+      </c>
+      <c r="O6">
+        <v>1.171464174402658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.594644854356545</v>
+        <v>2.56228252045014</v>
       </c>
       <c r="C7">
-        <v>0.3659084585981418</v>
+        <v>0.4206418918366808</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1007720622113162</v>
+        <v>0.02694415632641078</v>
       </c>
       <c r="F7">
-        <v>5.171066135204143</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0008209684342936586</v>
+        <v>0.0008223843398210071</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.258567615204072</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4382534592598191</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.03052923732053703</v>
+        <v>0.1263906238245767</v>
       </c>
       <c r="M7">
-        <v>0.1303579581950203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4146925350366999</v>
+      </c>
+      <c r="N7">
+        <v>1.140276953024621</v>
+      </c>
+      <c r="O7">
+        <v>1.196102075374753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.96160821797713</v>
+        <v>3.086752233971424</v>
       </c>
       <c r="C8">
-        <v>0.4541439453579414</v>
+        <v>0.5116096614114269</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1250638120199596</v>
+        <v>0.02733917307221345</v>
       </c>
       <c r="F8">
-        <v>6.301873017971843</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008057396707551887</v>
+        <v>0.0008119278955126858</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.716640989225766</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5410104779417395</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.04051948215291379</v>
+        <v>0.143895029929233</v>
       </c>
       <c r="M8">
-        <v>0.1683038822872156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4952301391859848</v>
+      </c>
+      <c r="N8">
+        <v>1.061965622243598</v>
+      </c>
+      <c r="O8">
+        <v>1.311785622942992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.741104810710624</v>
+        <v>4.15700771793837</v>
       </c>
       <c r="C9">
-        <v>0.6404336202955392</v>
+        <v>0.6953487817824566</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1771387431985829</v>
+        <v>0.02819903221781939</v>
       </c>
       <c r="F9">
-        <v>8.686923641516586</v>
+        <v>1.895061171842826</v>
       </c>
       <c r="G9">
-        <v>0.0007764519483819399</v>
+        <v>0.0007923996256199439</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.686367305409021</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7588973419977521</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.06443821055835031</v>
+        <v>0.1802725534396004</v>
       </c>
       <c r="M9">
-        <v>0.255300847692908</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6600391555639504</v>
+      </c>
+      <c r="N9">
+        <v>0.9237710972527324</v>
+      </c>
+      <c r="O9">
+        <v>1.568913718131839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.370879938084443</v>
+        <v>4.979477032981379</v>
       </c>
       <c r="C10">
-        <v>0.790348432359707</v>
+        <v>0.8354958411743496</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2199474651965616</v>
+        <v>0.02890523226696029</v>
       </c>
       <c r="F10">
-        <v>10.60807966761155</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.0007548413723692903</v>
+        <v>0.0007785323185022414</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.472423143416819</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9347268017806556</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.08647907492398765</v>
+        <v>0.2086414571309803</v>
       </c>
       <c r="M10">
-        <v>0.3315298886950231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.7869775486467674</v>
+      </c>
+      <c r="N10">
+        <v>0.8330631802427035</v>
+      </c>
+      <c r="O10">
+        <v>1.781963582219106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.675870392085301</v>
+        <v>5.364236397909792</v>
       </c>
       <c r="C11">
-        <v>0.8628544533371496</v>
+        <v>0.9008620501192297</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2409742639279884</v>
+        <v>0.02924879780357914</v>
       </c>
       <c r="F11">
-        <v>11.53885407919228</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007448587764351754</v>
+        <v>0.0007722986015790937</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.855110408096095</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.019843419695391</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09805217813548417</v>
+        <v>0.2220037211956054</v>
       </c>
       <c r="M11">
-        <v>0.3703144315811535</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.8464225178468396</v>
+      </c>
+      <c r="N11">
+        <v>0.7945231811578211</v>
+      </c>
+      <c r="O11">
+        <v>1.885589697543082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.794695012158058</v>
+        <v>5.511724020065458</v>
       </c>
       <c r="C12">
-        <v>0.8910927586272521</v>
+        <v>0.9258938066591327</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2492239968927592</v>
+        <v>0.02938272454722091</v>
       </c>
       <c r="F12">
-        <v>11.90174190687139</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.000741042337909476</v>
+        <v>0.000769945989422461</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.004660352930898</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.053001019560682</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1027239727654319</v>
+        <v>0.2271388953255382</v>
       </c>
       <c r="M12">
-        <v>0.3857554690583918</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.8692180206941273</v>
+      </c>
+      <c r="N12">
+        <v>0.780357315844725</v>
+      </c>
+      <c r="O12">
+        <v>1.925935826298414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.768943252396127</v>
+        <v>5.479875887283526</v>
       </c>
       <c r="C13">
-        <v>0.8849733155267359</v>
+        <v>0.9204895416935699</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.247433267328546</v>
+        <v>0.02935369989094028</v>
       </c>
       <c r="F13">
-        <v>11.82308126931093</v>
+        <v>2.504295469236084</v>
       </c>
       <c r="G13">
-        <v>0.000741866158990572</v>
+        <v>0.0007704523603434873</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.97222651943693</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.045815234267963</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1017036600019541</v>
+        <v>0.2260294371833851</v>
       </c>
       <c r="M13">
-        <v>0.3823932973530191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.8642952247286004</v>
+      </c>
+      <c r="N13">
+        <v>0.7833884969832638</v>
+      </c>
+      <c r="O13">
+        <v>1.917194975489366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.685574930299367</v>
+        <v>5.376332847979711</v>
       </c>
       <c r="C14">
-        <v>0.8651608849356762</v>
+        <v>0.9029155433840685</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2416467823128983</v>
+        <v>0.02925973544463378</v>
       </c>
       <c r="F14">
-        <v>11.56848504055461</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007445456181524543</v>
+        <v>0.0007721049083582606</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.867314188604979</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.022551508608586</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.09843027395191584</v>
+        <v>0.2224246301400967</v>
       </c>
       <c r="M14">
-        <v>0.3715685521281031</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.8482919552367818</v>
+      </c>
+      <c r="N14">
+        <v>0.7933489330623402</v>
+      </c>
+      <c r="O14">
+        <v>1.888885977536575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.634966137413812</v>
+        <v>5.313150883184676</v>
       </c>
       <c r="C15">
-        <v>0.8531325522258442</v>
+        <v>0.8921888032876097</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2381420280190838</v>
+        <v>0.0292026978827149</v>
       </c>
       <c r="F15">
-        <v>11.41397235003365</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007461816525825394</v>
+        <v>0.0007731180904713677</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.803691188604006</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.008428779459479</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.09646524239080279</v>
+        <v>0.2202266720543804</v>
       </c>
       <c r="M15">
-        <v>0.3650419610570523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.8385278957129358</v>
+      </c>
+      <c r="N15">
+        <v>0.7995069522235667</v>
+      </c>
+      <c r="O15">
+        <v>1.871694309788452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.351373966537665</v>
+        <v>4.954567263704632</v>
       </c>
       <c r="C16">
-        <v>0.7857096518384026</v>
+        <v>0.8312603379883683</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2186096375343354</v>
+        <v>0.02888327887488584</v>
       </c>
       <c r="F16">
-        <v>10.54857399919518</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007554895528864098</v>
+        <v>0.0007789409789368043</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.448000199135009</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9292824850626431</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.08575914376822702</v>
+        <v>0.207778180960247</v>
       </c>
       <c r="M16">
-        <v>0.329090830463624</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7831302365640624</v>
+      </c>
+      <c r="N16">
+        <v>0.8356396969092046</v>
+      </c>
+      <c r="O16">
+        <v>1.775337962884123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.182565018061268</v>
+        <v>4.737481935227265</v>
       </c>
       <c r="C17">
-        <v>0.7455547023879774</v>
+        <v>0.7943272843378963</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2070651289722321</v>
+        <v>0.02869344797905082</v>
       </c>
       <c r="F17">
-        <v>10.03365888272816</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007611515934529341</v>
+        <v>0.0007825303755827351</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.23687184239671</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8821625214152107</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.07962913475503974</v>
+        <v>0.2002648736246044</v>
       </c>
       <c r="M17">
-        <v>0.3081906500949572</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7496082357776004</v>
+      </c>
+      <c r="N17">
+        <v>0.8585281914453091</v>
+      </c>
+      <c r="O17">
+        <v>1.71803905709271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.087163629576708</v>
+        <v>4.613601738887496</v>
       </c>
       <c r="C18">
-        <v>0.722852487971636</v>
+        <v>0.7732329864519158</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.200566499316416</v>
+        <v>0.02858631979006043</v>
       </c>
       <c r="F18">
-        <v>9.742678376230373</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007643950009496121</v>
+        <v>0.0007846021069507233</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.117724695132978</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8555297174588219</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.07624392800032531</v>
+        <v>0.1959858137674786</v>
       </c>
       <c r="M18">
-        <v>0.2965440166549591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7304845754484361</v>
+      </c>
+      <c r="N18">
+        <v>0.8719469300693063</v>
+      </c>
+      <c r="O18">
+        <v>1.685704281749622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.05513533985345</v>
+        <v>4.57181918753605</v>
       </c>
       <c r="C19">
-        <v>0.7152292483455653</v>
+        <v>0.7661150113083579</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1983887981118002</v>
+        <v>0.02855038423469303</v>
       </c>
       <c r="F19">
-        <v>9.644988646543453</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0007654912695500961</v>
+        <v>0.0007853048759367418</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.077749636186951</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.846587930859144</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.07512017424757644</v>
+        <v>0.1945440099310787</v>
       </c>
       <c r="M19">
-        <v>0.2926607373834642</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7240354982698491</v>
+      </c>
+      <c r="N19">
+        <v>0.8765328457415649</v>
+      </c>
+      <c r="O19">
+        <v>1.674859129541375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.200355464955123</v>
+        <v>4.760487666277697</v>
       </c>
       <c r="C20">
-        <v>0.7497874565385132</v>
+        <v>0.7982431685226459</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2082790123808564</v>
+        <v>0.02871343870955423</v>
       </c>
       <c r="F20">
-        <v>10.08792141180405</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007605503242354809</v>
+        <v>0.0007821475515062607</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.259103433802579</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8871287325932968</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.0802667091474234</v>
+        <v>0.2010602254738103</v>
       </c>
       <c r="M20">
-        <v>0.3103757001590637</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7531601520359317</v>
+      </c>
+      <c r="N20">
+        <v>0.8560651452704704</v>
+      </c>
+      <c r="O20">
+        <v>1.724073284853418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.709965594794824</v>
+        <v>5.406695180324732</v>
       </c>
       <c r="C21">
-        <v>0.8709575518849988</v>
+        <v>0.9080694731907215</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2433380116983628</v>
+        <v>0.02928722579671694</v>
       </c>
       <c r="F21">
-        <v>11.6429621671673</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007437597134527326</v>
+        <v>0.0007716193226866122</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.897994099111031</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.029357759759776</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.09938325844822415</v>
+        <v>0.2234813279895747</v>
       </c>
       <c r="M21">
-        <v>0.3747260318013161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8529844199540406</v>
+      </c>
+      <c r="N21">
+        <v>0.7904113675229993</v>
+      </c>
+      <c r="O21">
+        <v>1.897169810312292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.062893919124463</v>
+        <v>5.839595741422841</v>
       </c>
       <c r="C22">
-        <v>0.9548155739570063</v>
+        <v>0.9815002563818211</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2679705981348377</v>
+        <v>0.02968489645082739</v>
       </c>
       <c r="F22">
-        <v>12.7215732961522</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007325651010189524</v>
+        <v>0.000764783371098865</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.343266420945099</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.127835236389046</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.113611076361094</v>
+        <v>0.2385782612757623</v>
       </c>
       <c r="M22">
-        <v>0.4212929411367092</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.919909214892904</v>
+      </c>
+      <c r="N22">
+        <v>0.7500206185054026</v>
+      </c>
+      <c r="O22">
+        <v>2.016819391690916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.872440682153865</v>
+        <v>5.607486137194144</v>
       </c>
       <c r="C23">
-        <v>0.9095664819695344</v>
+        <v>0.9421403030727618</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2546399851087315</v>
+        <v>0.02947034526332182</v>
       </c>
       <c r="F23">
-        <v>12.13927812017124</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.000738565920112224</v>
+        <v>0.0007684287515944679</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.102660179553425</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.074694745568621</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1058308042417924</v>
+        <v>0.2304767301308175</v>
       </c>
       <c r="M23">
-        <v>0.3959590860599178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8840213129733812</v>
+      </c>
+      <c r="N23">
+        <v>0.771334069348157</v>
+      </c>
+      <c r="O23">
+        <v>1.952312049621639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.192307315434277</v>
+        <v>4.750083913251103</v>
       </c>
       <c r="C24">
-        <v>0.7478726458288634</v>
+        <v>0.7964723677818597</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2077297889823626</v>
+        <v>0.02870439469059027</v>
       </c>
       <c r="F24">
-        <v>10.06337375064942</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007608221940907768</v>
+        <v>0.0007823206005862861</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.249045648154805</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8848820982842369</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.07997803351186938</v>
+        <v>0.2007005216376712</v>
       </c>
       <c r="M24">
-        <v>0.3093867008391769</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7515538708823684</v>
+      </c>
+      <c r="N24">
+        <v>0.8571778818269848</v>
+      </c>
+      <c r="O24">
+        <v>1.721343329790557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.521939607310571</v>
+        <v>3.861971688847802</v>
       </c>
       <c r="C25">
-        <v>0.58816442278831</v>
+        <v>0.6448876463977058</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1624096558719863</v>
+        <v>0.02795517215110133</v>
       </c>
       <c r="F25">
-        <v>8.017715016268596</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.0007843540308393764</v>
+        <v>0.0007975891484390736</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.413662380887445</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6976730958515702</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.05734134985003259</v>
+        <v>0.1701739243840521</v>
       </c>
       <c r="M25">
-        <v>0.2300019095385331</v>
+        <v>0.6145574054506824</v>
+      </c>
+      <c r="N25">
+        <v>0.9593708951378517</v>
+      </c>
+      <c r="O25">
+        <v>1.495564801574631</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.231327799058533</v>
+        <v>0.7736048457257994</v>
       </c>
       <c r="C2">
-        <v>0.5365568285087647</v>
+        <v>0.1838341125981913</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02745124846452018</v>
+        <v>0.01705247619861261</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008091646987097173</v>
+        <v>0.0008772895449212137</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.423502945264076</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9270618171121328</v>
       </c>
       <c r="L2">
-        <v>0.1487635537141188</v>
+        <v>0.1906115266795467</v>
       </c>
       <c r="M2">
-        <v>0.5174615865564647</v>
+        <v>0.1980692687231453</v>
       </c>
       <c r="N2">
-        <v>1.041739447819573</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.34498954807674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.814924487182168</v>
+        <v>0.6829439750529787</v>
       </c>
       <c r="C3">
-        <v>0.4645626993987548</v>
+        <v>0.1592014989739994</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02713211500629775</v>
+        <v>0.01670146438651354</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008172556336298059</v>
+        <v>0.0008846867614044892</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.18179100078514</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8132241571117333</v>
       </c>
       <c r="L3">
-        <v>0.1347894231749081</v>
+        <v>0.1740803272997837</v>
       </c>
       <c r="M3">
-        <v>0.4534648422213579</v>
+        <v>0.1770032081257717</v>
       </c>
       <c r="N3">
-        <v>1.10152977615919</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.250843764492885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.563654119019418</v>
+        <v>0.628624935250798</v>
       </c>
       <c r="C4">
-        <v>0.4208809126707536</v>
+        <v>0.1443099112184854</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02694516460377239</v>
+        <v>0.01650273861996343</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008223559826814862</v>
+        <v>0.0008893538829114655</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.035780749324502</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.744806147757572</v>
       </c>
       <c r="L4">
-        <v>0.1264360354925103</v>
+        <v>0.1641757699372306</v>
       </c>
       <c r="M4">
-        <v>0.4149028997368234</v>
+        <v>0.1643852107765369</v>
       </c>
       <c r="N4">
-        <v>1.140061028830686</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.196393953381843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.462230002665706</v>
+        <v>0.6067971808668631</v>
       </c>
       <c r="C5">
-        <v>0.4031878096326409</v>
+        <v>0.1382919733702153</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02687097622976387</v>
+        <v>0.01642584373293587</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008244692288149273</v>
+        <v>0.0008912884254826298</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.976813737759031</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7172588419535657</v>
       </c>
       <c r="L5">
-        <v>0.1230839317531505</v>
+        <v>0.1601962746956147</v>
       </c>
       <c r="M5">
-        <v>0.3993514602777637</v>
+        <v>0.1593159871216692</v>
       </c>
       <c r="N5">
-        <v>1.156201557394315</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.174976065417468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.445443444187902</v>
+        <v>0.6031904189701152</v>
       </c>
       <c r="C6">
-        <v>0.4002557203122308</v>
+        <v>0.1372955252198267</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02685877055364783</v>
+        <v>0.01641331848106908</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008248222759788463</v>
+        <v>0.000891611659696686</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.967052547946025</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7127037159387442</v>
       </c>
       <c r="L6">
-        <v>0.1225303158978903</v>
+        <v>0.1595387647935951</v>
       </c>
       <c r="M6">
-        <v>0.3967784024195069</v>
+        <v>0.1584784455534063</v>
       </c>
       <c r="N6">
-        <v>1.158907656059647</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.171464174402658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.56228252045014</v>
+        <v>0.6283293520288566</v>
       </c>
       <c r="C7">
-        <v>0.4206418918366808</v>
+        <v>0.1442285569400354</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02694415632641078</v>
+        <v>0.01650168521105666</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008223843398210071</v>
+        <v>0.0008893798391089155</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.03498342998752</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.744433332974836</v>
       </c>
       <c r="L7">
-        <v>0.1263906238245767</v>
+        <v>0.1641218779851812</v>
       </c>
       <c r="M7">
-        <v>0.4146925350366999</v>
+        <v>0.1643165598104055</v>
       </c>
       <c r="N7">
-        <v>1.140276953024621</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.196102075374753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.086752233971424</v>
+        <v>0.7420459380630575</v>
       </c>
       <c r="C8">
-        <v>0.5116096614114269</v>
+        <v>0.1752873861737925</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02733917307221345</v>
+        <v>0.01692787569138954</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008119278955126858</v>
+        <v>0.0008798148491547931</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.33961809376548</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8874797021151437</v>
       </c>
       <c r="L8">
-        <v>0.143895029929233</v>
+        <v>0.1848574033495822</v>
       </c>
       <c r="M8">
-        <v>0.4952301391859848</v>
+        <v>0.190735643509953</v>
       </c>
       <c r="N8">
-        <v>1.061965622243598</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.311785622942992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.15700771793837</v>
+        <v>0.9772715906075575</v>
       </c>
       <c r="C9">
-        <v>0.6953487817824566</v>
+        <v>0.2384420077170262</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02819903221781939</v>
+        <v>0.01790368998757774</v>
       </c>
       <c r="F9">
-        <v>1.895061171842826</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007923996256199439</v>
+        <v>0.0008619939783525589</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.959533119080987</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.181623623522341</v>
       </c>
       <c r="L9">
-        <v>0.1802725534396004</v>
+        <v>0.2277198690974984</v>
       </c>
       <c r="M9">
-        <v>0.6600391555639504</v>
+        <v>0.2453980433595575</v>
       </c>
       <c r="N9">
-        <v>0.9237710972527324</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.568913718131839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.979477032981379</v>
+        <v>1.159921877248621</v>
       </c>
       <c r="C10">
-        <v>0.8354958411743496</v>
+        <v>0.2868304875055685</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02890523226696029</v>
+        <v>0.01871648869220177</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007785323185022414</v>
+        <v>0.0008493840838295049</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.434021670870834</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.408969394163563</v>
       </c>
       <c r="L10">
-        <v>0.2086414571309803</v>
+        <v>0.2609375178130051</v>
       </c>
       <c r="M10">
-        <v>0.7869775486467674</v>
+        <v>0.2878260574727278</v>
       </c>
       <c r="N10">
-        <v>0.8330631802427035</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.781963582219106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.364236397909792</v>
+        <v>1.245747617299202</v>
       </c>
       <c r="C11">
-        <v>0.9008620501192297</v>
+        <v>0.3094317004247387</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02924879780357914</v>
+        <v>0.01910970648612498</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007722986015790937</v>
+        <v>0.0008437306788422478</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.655332191848771</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.515573972906395</v>
       </c>
       <c r="L11">
-        <v>0.2220037211956054</v>
+        <v>0.2765203643466805</v>
       </c>
       <c r="M11">
-        <v>0.8464225178468396</v>
+        <v>0.3077525949935804</v>
       </c>
       <c r="N11">
-        <v>0.7945231811578211</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.885589697543082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.511724020065458</v>
+        <v>1.27869748360871</v>
       </c>
       <c r="C12">
-        <v>0.9258938066591327</v>
+        <v>0.3180896185953941</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02938272454722091</v>
+        <v>0.01926222947213674</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.000769945989422461</v>
+        <v>0.0008415997879003267</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.740044947277994</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.556469675947255</v>
       </c>
       <c r="L12">
-        <v>0.2271388953255382</v>
+        <v>0.2824980354436093</v>
       </c>
       <c r="M12">
-        <v>0.8692180206941273</v>
+        <v>0.3154006704649959</v>
       </c>
       <c r="N12">
-        <v>0.780357315844725</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.925935826298414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.479875887283526</v>
+        <v>1.271580188502213</v>
       </c>
       <c r="C13">
-        <v>0.9204895416935699</v>
+        <v>0.3162203120009508</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.02935369989094028</v>
+        <v>0.01922921573018321</v>
       </c>
       <c r="F13">
-        <v>2.504295469236084</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007704523603434873</v>
+        <v>0.0008420583056950546</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.721758112222943</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.547637437400141</v>
       </c>
       <c r="L13">
-        <v>0.2260294371833851</v>
+        <v>0.2812070695277384</v>
       </c>
       <c r="M13">
-        <v>0.8642952247286004</v>
+        <v>0.3137487581196723</v>
       </c>
       <c r="N13">
-        <v>0.7833884969832638</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.917194975489366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.376332847979711</v>
+        <v>1.248449070423874</v>
       </c>
       <c r="C14">
-        <v>0.9029155433840685</v>
+        <v>0.3101419119747959</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02925973544463378</v>
+        <v>0.01912218059596604</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007721049083582606</v>
+        <v>0.0008435551824008276</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.662282635200199</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.518927504099764</v>
       </c>
       <c r="L14">
-        <v>0.2224246301400967</v>
+        <v>0.2770105575100388</v>
       </c>
       <c r="M14">
-        <v>0.8482919552367818</v>
+        <v>0.308379680339236</v>
       </c>
       <c r="N14">
-        <v>0.7933489330623402</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.888885977536575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.313150883184676</v>
+        <v>1.234340902027725</v>
       </c>
       <c r="C15">
-        <v>0.8921888032876097</v>
+        <v>0.3064321152191667</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0292026978827149</v>
+        <v>0.01905709763586927</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007731180904713677</v>
+        <v>0.0008444732930949483</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.6259741718182</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.501412638072196</v>
       </c>
       <c r="L15">
-        <v>0.2202266720543804</v>
+        <v>0.2744503536109306</v>
       </c>
       <c r="M15">
-        <v>0.8385278957129358</v>
+        <v>0.3051046810598734</v>
       </c>
       <c r="N15">
-        <v>0.7995069522235667</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.871694309788452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.954567263704632</v>
+        <v>1.154372680191102</v>
       </c>
       <c r="C16">
-        <v>0.8312603379883683</v>
+        <v>0.2853665103982337</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.02888327887488584</v>
+        <v>0.01869128360959671</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007789409789368043</v>
+        <v>0.0008497550498867254</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.419678553667922</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.402072325317818</v>
       </c>
       <c r="L16">
-        <v>0.207778180960247</v>
+        <v>0.2599293799754889</v>
       </c>
       <c r="M16">
-        <v>0.7831302365640624</v>
+        <v>0.2865374281109183</v>
       </c>
       <c r="N16">
-        <v>0.8356396969092046</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.775337962884123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.737481935227265</v>
+        <v>1.106053672833099</v>
       </c>
       <c r="C17">
-        <v>0.7943272843378963</v>
+        <v>0.2726042013037784</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02869344797905082</v>
+        <v>0.01847304607126166</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007825303755827351</v>
+        <v>0.0008530151176656329</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.294604774684103</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.341992424774503</v>
       </c>
       <c r="L17">
-        <v>0.2002648736246044</v>
+        <v>0.2511481651601031</v>
       </c>
       <c r="M17">
-        <v>0.7496082357776004</v>
+        <v>0.2753156634262268</v>
       </c>
       <c r="N17">
-        <v>0.8585281914453091</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.71803905709271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.613601738887496</v>
+        <v>1.078515798002542</v>
       </c>
       <c r="C18">
-        <v>0.7732329864519158</v>
+        <v>0.2653181337520323</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02858631979006043</v>
+        <v>0.0183497147148497</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007846021069507233</v>
+        <v>0.0008548981561828785</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.223171881350027</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.307731165126228</v>
       </c>
       <c r="L18">
-        <v>0.1959858137674786</v>
+        <v>0.2461412795484961</v>
       </c>
       <c r="M18">
-        <v>0.7304845754484361</v>
+        <v>0.2689192916200369</v>
       </c>
       <c r="N18">
-        <v>0.8719469300693063</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.685704281749622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.57181918753605</v>
+        <v>1.069233958389106</v>
       </c>
       <c r="C19">
-        <v>0.7661150113083579</v>
+        <v>0.2628601339424961</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02855038423469303</v>
+        <v>0.01830832647564851</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007853048759367418</v>
+        <v>0.0008555371405896284</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.199069375416627</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.296179598672268</v>
       </c>
       <c r="L19">
-        <v>0.1945440099310787</v>
+        <v>0.244453306786653</v>
       </c>
       <c r="M19">
-        <v>0.7240354982698491</v>
+        <v>0.2667632131291739</v>
       </c>
       <c r="N19">
-        <v>0.8765328457415649</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.674859129541375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.760487666277697</v>
+        <v>1.111170646708416</v>
       </c>
       <c r="C20">
-        <v>0.7982431685226459</v>
+        <v>0.2739570323161615</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.02871343870955423</v>
+        <v>0.01849604916376979</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007821475515062607</v>
+        <v>0.0008526672705425973</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.307865857633175</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.348357014699332</v>
       </c>
       <c r="L20">
-        <v>0.2010602254738103</v>
+        <v>0.2520783419557375</v>
       </c>
       <c r="M20">
-        <v>0.7531601520359317</v>
+        <v>0.2765041422600021</v>
       </c>
       <c r="N20">
-        <v>0.8560651452704704</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.724073284853418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.406695180324732</v>
+        <v>1.255230563142902</v>
       </c>
       <c r="C21">
-        <v>0.9080694731907215</v>
+        <v>0.3119244645594677</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.02928722579671694</v>
+        <v>0.01915351907923402</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007716193226866122</v>
+        <v>0.0008431152608203816</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.679726367563177</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.527345418808295</v>
       </c>
       <c r="L21">
-        <v>0.2234813279895747</v>
+        <v>0.2782410149831946</v>
       </c>
       <c r="M21">
-        <v>0.8529844199540406</v>
+        <v>0.3099538262486448</v>
       </c>
       <c r="N21">
-        <v>0.7904113675229993</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.897169810312292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.839595741422841</v>
+        <v>1.35203293618676</v>
       </c>
       <c r="C22">
-        <v>0.9815002563818211</v>
+        <v>0.3373254126644554</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.02968489645082739</v>
+        <v>0.01960444734779543</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0.000764783371098865</v>
+        <v>0.0008369292702819264</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.928113080068755</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.647433632085637</v>
       </c>
       <c r="L22">
-        <v>0.2385782612757623</v>
+        <v>0.2957922616486286</v>
       </c>
       <c r="M22">
-        <v>0.919909214892904</v>
+        <v>0.3324183379740404</v>
       </c>
       <c r="N22">
-        <v>0.7500206185054026</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.016819391690916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.607486137194144</v>
+        <v>1.300104938639549</v>
       </c>
       <c r="C23">
-        <v>0.9421403030727618</v>
+        <v>0.3237094428687044</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02947034526332182</v>
+        <v>0.01936174740277963</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007684287515944679</v>
+        <v>0.0008402263673963385</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.795010819879366</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.583030881057766</v>
       </c>
       <c r="L23">
-        <v>0.2304767301308175</v>
+        <v>0.2863802271367177</v>
       </c>
       <c r="M23">
-        <v>0.8840213129733812</v>
+        <v>0.3203689631663238</v>
       </c>
       <c r="N23">
-        <v>0.771334069348157</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.952312049621639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.750083913251103</v>
+        <v>1.108856515163438</v>
       </c>
       <c r="C24">
-        <v>0.7964723677818597</v>
+        <v>0.2733452591660352</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02870439469059027</v>
+        <v>0.01848564282964382</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007823206005862861</v>
+        <v>0.0008528245047570778</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.301869055632466</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.345478718207772</v>
       </c>
       <c r="L24">
-        <v>0.2007005216376712</v>
+        <v>0.2516576802636763</v>
       </c>
       <c r="M24">
-        <v>0.7515538708823684</v>
+        <v>0.2759666600513526</v>
       </c>
       <c r="N24">
-        <v>0.8571778818269848</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.721343329790557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.861971688847802</v>
+        <v>0.9120967910860145</v>
       </c>
       <c r="C25">
-        <v>0.6448876463977058</v>
+        <v>0.2210562622504568</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02795517215110133</v>
+        <v>0.01762369200235447</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007975891484390736</v>
+        <v>0.0008667233508126369</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.788899531097499</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.100305994137528</v>
       </c>
       <c r="L25">
-        <v>0.1701739243840521</v>
+        <v>0.215851309503023</v>
       </c>
       <c r="M25">
-        <v>0.6145574054506824</v>
+        <v>0.2302534844779558</v>
       </c>
       <c r="N25">
-        <v>0.9593708951378517</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.495564801574631</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7736048457257994</v>
+        <v>0.8700167400677685</v>
       </c>
       <c r="C2">
-        <v>0.1838341125981913</v>
+        <v>0.06848206782430566</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01705247619861261</v>
+        <v>0.04685825844356817</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008772895449212137</v>
+        <v>0.002630660161191975</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.423502945264076</v>
+        <v>3.231981165218542</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9270618171121328</v>
+        <v>0.7815826091351994</v>
       </c>
       <c r="L2">
-        <v>0.1906115266795467</v>
+        <v>0.2456611017818062</v>
       </c>
       <c r="M2">
-        <v>0.1980692687231453</v>
+        <v>0.2391894589264361</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6829439750529787</v>
+        <v>0.8557983477857647</v>
       </c>
       <c r="C3">
-        <v>0.1592014989739994</v>
+        <v>0.0612012889496043</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01670146438651354</v>
+        <v>0.04698995929574146</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008846867614044892</v>
+        <v>0.002634995088196433</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.18179100078514</v>
+        <v>3.156941376114759</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8132241571117333</v>
+        <v>0.7580917126121562</v>
       </c>
       <c r="L3">
-        <v>0.1740803272997837</v>
+        <v>0.2423689574970993</v>
       </c>
       <c r="M3">
-        <v>0.1770032081257717</v>
+        <v>0.2356253238422568</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.628624935250798</v>
+        <v>0.8477439638064084</v>
       </c>
       <c r="C4">
-        <v>0.1443099112184854</v>
+        <v>0.05674671088911509</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01650273861996343</v>
+        <v>0.04708437649157204</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008893538829114655</v>
+        <v>0.002637795453142711</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.035780749324502</v>
+        <v>3.111109536730723</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.744806147757572</v>
+        <v>0.7442437698174444</v>
       </c>
       <c r="L4">
-        <v>0.1641757699372306</v>
+        <v>0.240455488757199</v>
       </c>
       <c r="M4">
-        <v>0.1643852107765369</v>
+        <v>0.233591186121437</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6067971808668631</v>
+        <v>0.8446317010680957</v>
       </c>
       <c r="C5">
-        <v>0.1382919733702153</v>
+        <v>0.05493530132503111</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01642584373293587</v>
+        <v>0.04712626947171117</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008912884254826298</v>
+        <v>0.0026389716177181</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.976813737759031</v>
+        <v>3.092492504528138</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7172588419535657</v>
+        <v>0.7387451996900722</v>
       </c>
       <c r="L5">
-        <v>0.1601962746956147</v>
+        <v>0.2397028794879503</v>
       </c>
       <c r="M5">
-        <v>0.1593159871216692</v>
+        <v>0.2328010626961046</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6031904189701152</v>
+        <v>0.8441251789210469</v>
       </c>
       <c r="C6">
-        <v>0.1372955252198267</v>
+        <v>0.05463474827404013</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01641331848106908</v>
+        <v>0.0471334324364534</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.000891611659696686</v>
+        <v>0.002639169035883274</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.967052547946025</v>
+        <v>3.089404736208934</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7127037159387442</v>
+        <v>0.7378408943189356</v>
       </c>
       <c r="L6">
-        <v>0.1595387647935951</v>
+        <v>0.2395795490060166</v>
       </c>
       <c r="M6">
-        <v>0.1584784455534063</v>
+        <v>0.2326722074765151</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6283293520288566</v>
+        <v>0.8477013025128031</v>
       </c>
       <c r="C7">
-        <v>0.1442285569400354</v>
+        <v>0.0567222660832698</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01650168521105666</v>
+        <v>0.04708492762628325</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008893798391089155</v>
+        <v>0.00263781117367604</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.03498342998752</v>
+        <v>3.110858220426877</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.744433332974836</v>
+        <v>0.7441690289786891</v>
       </c>
       <c r="L7">
-        <v>0.1641218779851812</v>
+        <v>0.2404452288863155</v>
       </c>
       <c r="M7">
-        <v>0.1643165598104055</v>
+        <v>0.2335803731026722</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7420459380630575</v>
+        <v>0.8649739950075457</v>
       </c>
       <c r="C8">
-        <v>0.1752873861737925</v>
+        <v>0.06596829213167155</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01692787569138954</v>
+        <v>0.04690086166632312</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008798148491547931</v>
+        <v>0.002632126125791998</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.33961809376548</v>
+        <v>3.206056252023316</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8874797021151437</v>
+        <v>0.7733633867766514</v>
       </c>
       <c r="L8">
-        <v>0.1848574033495822</v>
+        <v>0.2445035738363686</v>
       </c>
       <c r="M8">
-        <v>0.190735643509953</v>
+        <v>0.2379285362177974</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9772715906075575</v>
+        <v>0.904209854685206</v>
       </c>
       <c r="C9">
-        <v>0.2384420077170262</v>
+        <v>0.08423172162511605</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01790368998757774</v>
+        <v>0.0466470478207448</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008619939783525589</v>
+        <v>0.002622073043274365</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.959533119080987</v>
+        <v>3.394732407140609</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.181623623522341</v>
+        <v>0.8351917697416695</v>
       </c>
       <c r="L9">
-        <v>0.2277198690974984</v>
+        <v>0.2533186942374215</v>
       </c>
       <c r="M9">
-        <v>0.2453980433595575</v>
+        <v>0.2476794584455106</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.159921877248621</v>
+        <v>0.9363154015657358</v>
       </c>
       <c r="C10">
-        <v>0.2868304875055685</v>
+        <v>0.09774027504062133</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01871648869220177</v>
+        <v>0.04652538467685652</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0008493840838295049</v>
+        <v>0.002615347367184607</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.434021670870834</v>
+        <v>3.534671743590565</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.408969394163563</v>
+        <v>0.88343087482545</v>
       </c>
       <c r="L10">
-        <v>0.2609375178130051</v>
+        <v>0.2603190731884126</v>
       </c>
       <c r="M10">
-        <v>0.2878260574727278</v>
+        <v>0.2555914369610122</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.245747617299202</v>
+        <v>0.9516354510921019</v>
       </c>
       <c r="C11">
-        <v>0.3094317004247387</v>
+        <v>0.103907526197645</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01910970648612498</v>
+        <v>0.0464840077758808</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0008437306788422478</v>
+        <v>0.002612429489765896</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.655332191848771</v>
+        <v>3.598643214586247</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.515573972906395</v>
+        <v>0.9059925351012907</v>
       </c>
       <c r="L11">
-        <v>0.2765203643466805</v>
+        <v>0.2636179223774917</v>
       </c>
       <c r="M11">
-        <v>0.3077525949935804</v>
+        <v>0.2593536934601914</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.27869748360871</v>
+        <v>0.9575396873666762</v>
       </c>
       <c r="C12">
-        <v>0.3180896185953941</v>
+        <v>0.1062462406610791</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.01926222947213674</v>
+        <v>0.04647033934260136</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0008415997879003267</v>
+        <v>0.002611344817012722</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.740044947277994</v>
+        <v>3.622914023294442</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.556469675947255</v>
+        <v>0.9146251605492068</v>
       </c>
       <c r="L12">
-        <v>0.2824980354436093</v>
+        <v>0.2648835686769502</v>
       </c>
       <c r="M12">
-        <v>0.3154006704649959</v>
+        <v>0.260801825869045</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.271580188502213</v>
+        <v>0.9562635287275327</v>
       </c>
       <c r="C13">
-        <v>0.3162203120009508</v>
+        <v>0.1057424074083144</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01922921573018321</v>
+        <v>0.0464731942639478</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0008420583056950546</v>
+        <v>0.002611577521161933</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.721758112222943</v>
+        <v>3.617684795150296</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.547637437400141</v>
+        <v>0.9127620075641119</v>
       </c>
       <c r="L13">
-        <v>0.2812070695277384</v>
+        <v>0.2646102577281368</v>
       </c>
       <c r="M13">
-        <v>0.3137487581196723</v>
+        <v>0.2604889017888325</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.248449070423874</v>
+        <v>0.9521191343189344</v>
       </c>
       <c r="C14">
-        <v>0.3101419119747959</v>
+        <v>0.1040998665731649</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01912218059596604</v>
+        <v>0.0464828432290787</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0008435551824008276</v>
+        <v>0.002612339847533622</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.662282635200199</v>
+        <v>3.600639055343379</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.518927504099764</v>
+        <v>0.9067009610843115</v>
       </c>
       <c r="L14">
-        <v>0.2770105575100388</v>
+        <v>0.2637217182913787</v>
       </c>
       <c r="M14">
-        <v>0.308379680339236</v>
+        <v>0.25947236225484</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.234340902027725</v>
+        <v>0.9495939705872729</v>
       </c>
       <c r="C15">
-        <v>0.3064321152191667</v>
+        <v>0.1030941977487316</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01905709763586927</v>
+        <v>0.04648901371988856</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0008444732930949483</v>
+        <v>0.002612809430337407</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.6259741718182</v>
+        <v>3.590204102323753</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.501412638072196</v>
+        <v>0.9029999942701465</v>
       </c>
       <c r="L15">
-        <v>0.2744503536109306</v>
+        <v>0.2631796037487959</v>
       </c>
       <c r="M15">
-        <v>0.3051046810598734</v>
+        <v>0.2588527560309259</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.154372680191102</v>
+        <v>0.9353285925649857</v>
       </c>
       <c r="C16">
-        <v>0.2853665103982337</v>
+        <v>0.09733768700280621</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01869128360959671</v>
+        <v>0.04652836910165359</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0008497550498867254</v>
+        <v>0.002615540898995444</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.419678553667922</v>
+        <v>3.530497452826751</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.402072325317818</v>
+        <v>0.8819688610173273</v>
       </c>
       <c r="L16">
-        <v>0.2599293799754889</v>
+        <v>0.2601057865891363</v>
       </c>
       <c r="M16">
-        <v>0.2865374281109183</v>
+        <v>0.2553488457480881</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.106053672833099</v>
+        <v>0.9267604179175066</v>
       </c>
       <c r="C17">
-        <v>0.2726042013037784</v>
+        <v>0.0938120148095436</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01847304607126166</v>
+        <v>0.04655608387174848</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0008530151176656329</v>
+        <v>0.002617252774066436</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.294604774684103</v>
+        <v>3.493950274964845</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.341992424774503</v>
+        <v>0.8692252432562384</v>
       </c>
       <c r="L17">
-        <v>0.2511481651601031</v>
+        <v>0.2582493857279644</v>
       </c>
       <c r="M17">
-        <v>0.2753156634262268</v>
+        <v>0.2532410726993106</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.078515798002542</v>
+        <v>0.921899533835898</v>
       </c>
       <c r="C18">
-        <v>0.2653181337520323</v>
+        <v>0.09178621795379627</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0183497147148497</v>
+        <v>0.04657333993796087</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0008548981561828785</v>
+        <v>0.002618250740264605</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.223171881350027</v>
+        <v>3.472958629553176</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.307731165126228</v>
+        <v>0.8619535545504107</v>
       </c>
       <c r="L18">
-        <v>0.2461412795484961</v>
+        <v>0.2571923952827859</v>
       </c>
       <c r="M18">
-        <v>0.2689192916200369</v>
+        <v>0.2520440850452488</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.069233958389106</v>
+        <v>0.9202652803807609</v>
       </c>
       <c r="C19">
-        <v>0.2628601339424961</v>
+        <v>0.09110067076548489</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01830832647564851</v>
+        <v>0.04657940870452837</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0008555371405896284</v>
+        <v>0.002618590928799236</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.199069375416627</v>
+        <v>3.465856216512336</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.296179598672268</v>
+        <v>0.8595014582455747</v>
       </c>
       <c r="L19">
-        <v>0.244453306786653</v>
+        <v>0.256836364873223</v>
       </c>
       <c r="M19">
-        <v>0.2667632131291739</v>
+        <v>0.2516414415967176</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.111170646708416</v>
+        <v>0.9276655488540655</v>
       </c>
       <c r="C20">
-        <v>0.2739570323161615</v>
+        <v>0.09418711280662251</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01849604916376979</v>
+        <v>0.04655299752431041</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0008526672705425973</v>
+        <v>0.002617069162241364</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.307865857633175</v>
+        <v>3.49783774016538</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.348357014699332</v>
+        <v>0.8705758080660644</v>
       </c>
       <c r="L20">
-        <v>0.2520783419557375</v>
+        <v>0.2584458889109698</v>
       </c>
       <c r="M20">
-        <v>0.2765041422600021</v>
+        <v>0.2534638603226469</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.255230563142902</v>
+        <v>0.9533336513056838</v>
       </c>
       <c r="C21">
-        <v>0.3119244645594677</v>
+        <v>0.1045822297808741</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01915351907923402</v>
+        <v>0.04647995487945522</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0008431152608203816</v>
+        <v>0.002612115384718189</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.679726367563177</v>
+        <v>3.605644538215614</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.527345418808295</v>
+        <v>0.9084788196857119</v>
       </c>
       <c r="L21">
-        <v>0.2782410149831946</v>
+        <v>0.2639822575681023</v>
       </c>
       <c r="M21">
-        <v>0.3099538262486448</v>
+        <v>0.2597703081886422</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.35203293618676</v>
+        <v>0.9707088467760627</v>
       </c>
       <c r="C22">
-        <v>0.3373254126644554</v>
+        <v>0.1113953939604073</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.01960444734779543</v>
+        <v>0.04644387152208651</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0008369292702819264</v>
+        <v>0.002608995870869082</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.928113080068755</v>
+        <v>3.676372402397504</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.647433632085637</v>
+        <v>0.9337695843495908</v>
       </c>
       <c r="L22">
-        <v>0.2957922616486286</v>
+        <v>0.2676964424620252</v>
       </c>
       <c r="M22">
-        <v>0.3324183379740404</v>
+        <v>0.2640286079132039</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.300104938639549</v>
+        <v>0.9613804985338277</v>
       </c>
       <c r="C23">
-        <v>0.3237094428687044</v>
+        <v>0.1077572670931772</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01936174740277963</v>
+        <v>0.04646206631586125</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0008402263673963385</v>
+        <v>0.002610650046438318</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.795010819879366</v>
+        <v>3.638598491581575</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.583030881057766</v>
+        <v>0.9202238656777695</v>
       </c>
       <c r="L23">
-        <v>0.2863802271367177</v>
+        <v>0.2657053412261945</v>
       </c>
       <c r="M23">
-        <v>0.3203689631663238</v>
+        <v>0.2617433672595197</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.108856515163438</v>
+        <v>0.9272561364640239</v>
       </c>
       <c r="C24">
-        <v>0.2733452591660352</v>
+        <v>0.09401752740274105</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.01848564282964382</v>
+        <v>0.04655438874204698</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0008528245047570778</v>
+        <v>0.002617152130256875</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.301869055632466</v>
+        <v>3.49608015551965</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.345478718207772</v>
+        <v>0.8699650470798019</v>
       </c>
       <c r="L24">
-        <v>0.2516576802636763</v>
+        <v>0.2583570178051673</v>
       </c>
       <c r="M24">
-        <v>0.2759666600513526</v>
+        <v>0.2533630919410257</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9120967910860145</v>
+        <v>0.8930203668474235</v>
       </c>
       <c r="C25">
-        <v>0.2210562622504568</v>
+        <v>0.07927582465372041</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.01762369200235447</v>
+        <v>0.0467042933585553</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0008667233508126369</v>
+        <v>0.002624676177298065</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.788899531097499</v>
+        <v>3.343466383575318</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.100305994137528</v>
+        <v>0.8179730980558872</v>
       </c>
       <c r="L25">
-        <v>0.215851309503023</v>
+        <v>0.2508420880240863</v>
       </c>
       <c r="M25">
-        <v>0.2302534844779558</v>
+        <v>0.2449103513418081</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8700167400677685</v>
+        <v>0.773604845725913</v>
       </c>
       <c r="C2">
-        <v>0.06848206782430566</v>
+        <v>0.1838341125983618</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04685825844356817</v>
+        <v>0.01705247619865791</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002630660161191975</v>
+        <v>0.000877289544897271</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.231981165218542</v>
+        <v>3.42350294526409</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7815826091351994</v>
+        <v>0.9270618171119338</v>
       </c>
       <c r="L2">
-        <v>0.2456611017818062</v>
+        <v>0.1906115266797173</v>
       </c>
       <c r="M2">
-        <v>0.2391894589264361</v>
+        <v>0.1980692687231489</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8557983477857647</v>
+        <v>0.6829439750529787</v>
       </c>
       <c r="C3">
-        <v>0.0612012889496043</v>
+        <v>0.1592014989737436</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04698995929574146</v>
+        <v>0.01670146438654552</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002634995088196433</v>
+        <v>0.0008846867614051068</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.156941376114759</v>
+        <v>3.18179100078514</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7580917126121562</v>
+        <v>0.813224157111847</v>
       </c>
       <c r="L3">
-        <v>0.2423689574970993</v>
+        <v>0.174080327299805</v>
       </c>
       <c r="M3">
-        <v>0.2356253238422568</v>
+        <v>0.177003208125754</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8477439638064084</v>
+        <v>0.6286249352509117</v>
       </c>
       <c r="C4">
-        <v>0.05674671088911509</v>
+        <v>0.1443099112181727</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04708437649157204</v>
+        <v>0.01650273861999274</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002637795453142711</v>
+        <v>0.0008893538829559612</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.111109536730723</v>
+        <v>3.035780749324545</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7442437698174444</v>
+        <v>0.744806147757572</v>
       </c>
       <c r="L4">
-        <v>0.240455488757199</v>
+        <v>0.1641757699373514</v>
       </c>
       <c r="M4">
-        <v>0.233591186121437</v>
+        <v>0.164385210776544</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8446317010680957</v>
+        <v>0.6067971808668347</v>
       </c>
       <c r="C5">
-        <v>0.05493530132503111</v>
+        <v>0.1382919733704711</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04712626947171117</v>
+        <v>0.01642584373293321</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.0026389716177181</v>
+        <v>0.0008912884253439232</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.092492504528138</v>
+        <v>2.976813737759016</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7387451996900722</v>
+        <v>0.7172588419535657</v>
       </c>
       <c r="L5">
-        <v>0.2397028794879503</v>
+        <v>0.1601962746956573</v>
       </c>
       <c r="M5">
-        <v>0.2328010626961046</v>
+        <v>0.1593159871216479</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8441251789210469</v>
+        <v>0.6031904189702288</v>
       </c>
       <c r="C6">
-        <v>0.05463474827404013</v>
+        <v>0.1372955252195851</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0471334324364534</v>
+        <v>0.01641331848110372</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002639169035883274</v>
+        <v>0.0008916116595616009</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.089404736208934</v>
+        <v>2.967052547945997</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7378408943189356</v>
+        <v>0.7127037159387726</v>
       </c>
       <c r="L6">
-        <v>0.2395795490060166</v>
+        <v>0.1595387647935667</v>
       </c>
       <c r="M6">
-        <v>0.2326722074765151</v>
+        <v>0.1584784455534312</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8477013025128031</v>
+        <v>0.6283293520291409</v>
       </c>
       <c r="C7">
-        <v>0.0567222660832698</v>
+        <v>0.1442285569401776</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04708492762628325</v>
+        <v>0.01650168521113216</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.00263781117367604</v>
+        <v>0.000889379839145997</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.110858220426877</v>
+        <v>3.034983429987577</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7441690289786891</v>
+        <v>0.7444333329748645</v>
       </c>
       <c r="L7">
-        <v>0.2404452288863155</v>
+        <v>0.1641218779854157</v>
       </c>
       <c r="M7">
-        <v>0.2335803731026722</v>
+        <v>0.1643165598103877</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8649739950075457</v>
+        <v>0.742045938062887</v>
       </c>
       <c r="C8">
-        <v>0.06596829213167155</v>
+        <v>0.1752873861739772</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04690086166632312</v>
+        <v>0.01692787569137444</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002632126125791998</v>
+        <v>0.0008798148491639488</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.206056252023316</v>
+        <v>3.339618093765523</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7733633867766514</v>
+        <v>0.8874797021150869</v>
       </c>
       <c r="L8">
-        <v>0.2445035738363686</v>
+        <v>0.1848574033495538</v>
       </c>
       <c r="M8">
-        <v>0.2379285362177974</v>
+        <v>0.1907356435099565</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.904209854685206</v>
+        <v>0.9772715906078417</v>
       </c>
       <c r="C9">
-        <v>0.08423172162511605</v>
+        <v>0.2384420077161451</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0466470478207448</v>
+        <v>0.01790368998759106</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002622073043274365</v>
+        <v>0.000861993978300248</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.394732407140609</v>
+        <v>3.959533119080959</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8351917697416695</v>
+        <v>1.18162362352237</v>
       </c>
       <c r="L9">
-        <v>0.2533186942374215</v>
+        <v>0.2277198690974416</v>
       </c>
       <c r="M9">
-        <v>0.2476794584455106</v>
+        <v>0.2453980433595468</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9363154015657358</v>
+        <v>1.159921877248678</v>
       </c>
       <c r="C10">
-        <v>0.09774027504062133</v>
+        <v>0.2868304875053127</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04652538467685652</v>
+        <v>0.0187164886922071</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002615347367184607</v>
+        <v>0.0008493840837726368</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.534671743590565</v>
+        <v>4.434021670870862</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.88343087482545</v>
+        <v>1.408969394163478</v>
       </c>
       <c r="L10">
-        <v>0.2603190731884126</v>
+        <v>0.2609375178130335</v>
       </c>
       <c r="M10">
-        <v>0.2555914369610122</v>
+        <v>0.2878260574727491</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9516354510921019</v>
+        <v>1.245747617299031</v>
       </c>
       <c r="C11">
-        <v>0.103907526197645</v>
+        <v>0.3094317004243976</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0464840077758808</v>
+        <v>0.01910970648617472</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002612429489765896</v>
+        <v>0.0008437306789367565</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.598643214586247</v>
+        <v>4.655332191848771</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9059925351012907</v>
+        <v>1.515573972906481</v>
       </c>
       <c r="L11">
-        <v>0.2636179223774917</v>
+        <v>0.27652036434678</v>
       </c>
       <c r="M11">
-        <v>0.2593536934601914</v>
+        <v>0.3077525949935804</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9575396873666762</v>
+        <v>1.278697483608397</v>
       </c>
       <c r="C12">
-        <v>0.1062462406610791</v>
+        <v>0.3180896185957636</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04647033934260136</v>
+        <v>0.01926222947212786</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002611344817012722</v>
+        <v>0.0008415997878961353</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.622914023294442</v>
+        <v>4.740044947278022</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9146251605492068</v>
+        <v>1.55646967594754</v>
       </c>
       <c r="L12">
-        <v>0.2648835686769502</v>
+        <v>0.2824980354434672</v>
       </c>
       <c r="M12">
-        <v>0.260801825869045</v>
+        <v>0.315400670465003</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9562635287275327</v>
+        <v>1.271580188502242</v>
       </c>
       <c r="C13">
-        <v>0.1057424074083144</v>
+        <v>0.3162203120009508</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0464731942639478</v>
+        <v>0.01922921573019387</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002611577521161933</v>
+        <v>0.000842058305698587</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.617684795150296</v>
+        <v>4.721758112222915</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9127620075641119</v>
+        <v>1.547637437400169</v>
       </c>
       <c r="L13">
-        <v>0.2646102577281368</v>
+        <v>0.2812070695276958</v>
       </c>
       <c r="M13">
-        <v>0.2604889017888325</v>
+        <v>0.3137487581196936</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9521191343189344</v>
+        <v>1.248449070423561</v>
       </c>
       <c r="C14">
-        <v>0.1040998665731649</v>
+        <v>0.3101419119742275</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0464828432290787</v>
+        <v>0.01912218059599624</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002612339847533622</v>
+        <v>0.0008435551822867733</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.600639055343379</v>
+        <v>4.662282635200313</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9067009610843115</v>
+        <v>1.51892750409985</v>
       </c>
       <c r="L14">
-        <v>0.2637217182913787</v>
+        <v>0.2770105575098256</v>
       </c>
       <c r="M14">
-        <v>0.25947236225484</v>
+        <v>0.3083796803392573</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9495939705872729</v>
+        <v>1.234340902027697</v>
       </c>
       <c r="C15">
-        <v>0.1030941977487316</v>
+        <v>0.3064321152190246</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04648901371988856</v>
+        <v>0.0190570976358444</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002612809430337407</v>
+        <v>0.0008444732932968137</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.590204102323753</v>
+        <v>4.625974171818285</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9029999942701465</v>
+        <v>1.501412638072338</v>
       </c>
       <c r="L15">
-        <v>0.2631796037487959</v>
+        <v>0.2744503536110443</v>
       </c>
       <c r="M15">
-        <v>0.2588527560309259</v>
+        <v>0.3051046810598592</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9353285925649857</v>
+        <v>1.154372680191329</v>
       </c>
       <c r="C16">
-        <v>0.09733768700280621</v>
+        <v>0.2853665103986032</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04652836910165359</v>
+        <v>0.01869128360961714</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002615540898995444</v>
+        <v>0.0008497550497913004</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.530497452826751</v>
+        <v>4.419678553667865</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8819688610173273</v>
+        <v>1.402072325317903</v>
       </c>
       <c r="L16">
-        <v>0.2601057865891363</v>
+        <v>0.2599293799753326</v>
       </c>
       <c r="M16">
-        <v>0.2553488457480881</v>
+        <v>0.286537428110897</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9267604179175066</v>
+        <v>1.106053672832928</v>
       </c>
       <c r="C17">
-        <v>0.0938120148095436</v>
+        <v>0.2726042013036079</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04655608387174848</v>
+        <v>0.01847304607129097</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002617252774066436</v>
+        <v>0.0008530151177384291</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.493950274964845</v>
+        <v>4.294604774684018</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8692252432562384</v>
+        <v>1.341992424774446</v>
       </c>
       <c r="L17">
-        <v>0.2582493857279644</v>
+        <v>0.251148165160231</v>
       </c>
       <c r="M17">
-        <v>0.2532410726993106</v>
+        <v>0.2753156634262268</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.921899533835898</v>
+        <v>1.078515798002684</v>
       </c>
       <c r="C18">
-        <v>0.09178621795379627</v>
+        <v>0.265318133751947</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04657333993796087</v>
+        <v>0.01834971471484081</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002618250740264605</v>
+        <v>0.0008548981562247939</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.472958629553176</v>
+        <v>4.223171881350112</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8619535545504107</v>
+        <v>1.307731165126171</v>
       </c>
       <c r="L18">
-        <v>0.2571923952827859</v>
+        <v>0.2461412795485387</v>
       </c>
       <c r="M18">
-        <v>0.2520440850452488</v>
+        <v>0.2689192916200582</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9202652803807609</v>
+        <v>1.069233958389361</v>
       </c>
       <c r="C19">
-        <v>0.09110067076548489</v>
+        <v>0.2628601339431498</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04657940870452837</v>
+        <v>0.01830832647564495</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002618590928799236</v>
+        <v>0.0008555371406759431</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.465856216512336</v>
+        <v>4.199069375416627</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8595014582455747</v>
+        <v>1.29617959867204</v>
       </c>
       <c r="L19">
-        <v>0.256836364873223</v>
+        <v>0.2444533067867098</v>
       </c>
       <c r="M19">
-        <v>0.2516414415967176</v>
+        <v>0.2667632131291526</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9276655488540655</v>
+        <v>1.111170646708445</v>
       </c>
       <c r="C20">
-        <v>0.09418711280662251</v>
+        <v>0.2739570323166163</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04655299752431041</v>
+        <v>0.01849604916379022</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002617069162241364</v>
+        <v>0.0008526672704793903</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.49783774016538</v>
+        <v>4.307865857633175</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8705758080660644</v>
+        <v>1.348357014699246</v>
       </c>
       <c r="L20">
-        <v>0.2584458889109698</v>
+        <v>0.2520783419557944</v>
       </c>
       <c r="M20">
-        <v>0.2534638603226469</v>
+        <v>0.2765041422600163</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9533336513056838</v>
+        <v>1.255230563142675</v>
       </c>
       <c r="C21">
-        <v>0.1045822297808741</v>
+        <v>0.3119244645598371</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04647995487945522</v>
+        <v>0.01915351907923757</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002612115384718189</v>
+        <v>0.0008431152608216944</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.605644538215614</v>
+        <v>4.679726367563177</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9084788196857119</v>
+        <v>1.527345418808181</v>
       </c>
       <c r="L21">
-        <v>0.2639822575681023</v>
+        <v>0.2782410149830099</v>
       </c>
       <c r="M21">
-        <v>0.2597703081886422</v>
+        <v>0.3099538262486305</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9707088467760627</v>
+        <v>1.352032936186873</v>
       </c>
       <c r="C22">
-        <v>0.1113953939604073</v>
+        <v>0.3373254126648249</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04644387152208651</v>
+        <v>0.01960444734773326</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002608995870869082</v>
+        <v>0.000836929270336294</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.676372402397504</v>
+        <v>4.928113080068755</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9337695843495908</v>
+        <v>1.64743363208558</v>
       </c>
       <c r="L22">
-        <v>0.2676964424620252</v>
+        <v>0.2957922616485718</v>
       </c>
       <c r="M22">
-        <v>0.2640286079132039</v>
+        <v>0.3324183379740404</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9613804985338277</v>
+        <v>1.300104938639436</v>
       </c>
       <c r="C23">
-        <v>0.1077572670931772</v>
+        <v>0.3237094428686476</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04646206631586125</v>
+        <v>0.01936174740279739</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002610650046438318</v>
+        <v>0.0008402263674381416</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.638598491581575</v>
+        <v>4.795010819879423</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9202238656777695</v>
+        <v>1.583030881057852</v>
       </c>
       <c r="L23">
-        <v>0.2657053412261945</v>
+        <v>0.2863802271367604</v>
       </c>
       <c r="M23">
-        <v>0.2617433672595197</v>
+        <v>0.3203689631663096</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9272561364640239</v>
+        <v>1.108856515163382</v>
       </c>
       <c r="C24">
-        <v>0.09401752740274105</v>
+        <v>0.27334525916595</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04655438874204698</v>
+        <v>0.01848564282965093</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002617152130256875</v>
+        <v>0.0008528245048374927</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.49608015551965</v>
+        <v>4.301869055632494</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8699650470798019</v>
+        <v>1.345478718207715</v>
       </c>
       <c r="L24">
-        <v>0.2583570178051673</v>
+        <v>0.25165768026379</v>
       </c>
       <c r="M24">
-        <v>0.2533630919410257</v>
+        <v>0.2759666600513526</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8930203668474235</v>
+        <v>0.9120967910859008</v>
       </c>
       <c r="C25">
-        <v>0.07927582465372041</v>
+        <v>0.221056262250741</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0467042933585553</v>
+        <v>0.01762369200231095</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002624676177298065</v>
+        <v>0.0008667233507159683</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.343466383575318</v>
+        <v>3.788899531097584</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8179730980558872</v>
+        <v>1.100305994137472</v>
       </c>
       <c r="L25">
-        <v>0.2508420880240863</v>
+        <v>0.2158513095031509</v>
       </c>
       <c r="M25">
-        <v>0.2449103513418081</v>
+        <v>0.2302534844779345</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.773604845725913</v>
+        <v>1.753846907932854</v>
       </c>
       <c r="C2">
-        <v>0.1838341125983618</v>
+        <v>0.398683412774588</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01705247619865791</v>
+        <v>0.07630125784142638</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.000877289544897271</v>
+        <v>0.2398553478786241</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0003274954233996041</v>
       </c>
       <c r="I2">
-        <v>3.42350294526409</v>
+        <v>0.0004623756996040562</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2282278047489754</v>
       </c>
       <c r="K2">
-        <v>0.9270618171119338</v>
+        <v>0.2391331832471693</v>
       </c>
       <c r="L2">
-        <v>0.1906115266797173</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1980692687231489</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.181068735597016</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.324661852293076</v>
+      </c>
+      <c r="P2">
+        <v>0.9455480549895796</v>
+      </c>
+      <c r="Q2">
+        <v>0.9355064367932044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6829439750529787</v>
+        <v>1.528661937681591</v>
       </c>
       <c r="C3">
-        <v>0.1592014989737436</v>
+        <v>0.371593244788059</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01670146438654552</v>
+        <v>0.07506365424849548</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008846867614051068</v>
+        <v>0.2284204788453508</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0007893208867801871</v>
       </c>
       <c r="I3">
-        <v>3.18179100078514</v>
+        <v>0.000446869020333196</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2265806778814436</v>
       </c>
       <c r="K3">
-        <v>0.813224157111847</v>
+        <v>0.2429105302479364</v>
       </c>
       <c r="L3">
-        <v>0.174080327299805</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.177003208125754</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.164087874691397</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2838632169648889</v>
+      </c>
+      <c r="P3">
+        <v>0.9380042643987778</v>
+      </c>
+      <c r="Q3">
+        <v>0.9075681415137495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6286249352509117</v>
+        <v>1.389690594959745</v>
       </c>
       <c r="C4">
-        <v>0.1443099112181727</v>
+        <v>0.3549987557973537</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01650273861999274</v>
+        <v>0.07428485248093253</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008893538829559612</v>
+        <v>0.2216578263083306</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001187785616063586</v>
       </c>
       <c r="I4">
-        <v>3.035780749324545</v>
+        <v>0.0005645878852060804</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2257664078584369</v>
       </c>
       <c r="K4">
-        <v>0.744806147757572</v>
+        <v>0.2454418973001182</v>
       </c>
       <c r="L4">
-        <v>0.1641757699373514</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.164385210776544</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1536801296876789</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2587336033939991</v>
+      </c>
+      <c r="P4">
+        <v>0.9340598195311784</v>
+      </c>
+      <c r="Q4">
+        <v>0.8913675026802252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6067971808668347</v>
+        <v>1.332025036022031</v>
       </c>
       <c r="C5">
-        <v>0.1382919733704711</v>
+        <v>0.3485980215724851</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01642584373293321</v>
+        <v>0.07393939987550002</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008912884253439232</v>
+        <v>0.2186796811368268</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001379109618798835</v>
       </c>
       <c r="I5">
-        <v>2.976813737759016</v>
+        <v>0.0007104675110531922</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2253348454111475</v>
       </c>
       <c r="K5">
-        <v>0.7172588419535657</v>
+        <v>0.2463155825385392</v>
       </c>
       <c r="L5">
-        <v>0.1601962746956573</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1593159871216479</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1495007551024088</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2483906418500794</v>
+      </c>
+      <c r="P5">
+        <v>0.9330274907752241</v>
+      </c>
+      <c r="Q5">
+        <v>0.8840834642809767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6031904189702288</v>
+        <v>1.32139080227401</v>
       </c>
       <c r="C6">
-        <v>0.1372955252195851</v>
+        <v>0.3479703705663155</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01641331848110372</v>
+        <v>0.07385348699799543</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008916116595616009</v>
+        <v>0.2178418419086654</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001414170296033523</v>
       </c>
       <c r="I6">
-        <v>2.967052547945997</v>
+        <v>0.0008261987143241001</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2250853250867095</v>
       </c>
       <c r="K6">
-        <v>0.7127037159387726</v>
+        <v>0.2462077848807844</v>
       </c>
       <c r="L6">
-        <v>0.1595387647935667</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1584784455534312</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.148878208818509</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2465714090069895</v>
+      </c>
+      <c r="P6">
+        <v>0.9333658914424419</v>
+      </c>
+      <c r="Q6">
+        <v>0.8817732695655849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6283293520291409</v>
+        <v>1.386041326037287</v>
       </c>
       <c r="C7">
-        <v>0.1442285569401776</v>
+        <v>0.356104831452086</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01650168521113216</v>
+        <v>0.07420363225910531</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.000889379839145997</v>
+        <v>0.2206694899552843</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001194292092604687</v>
       </c>
       <c r="I7">
-        <v>3.034983429987577</v>
+        <v>0.0007965144776331812</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2252674098540055</v>
       </c>
       <c r="K7">
-        <v>0.7444333329748645</v>
+        <v>0.2447557371816487</v>
       </c>
       <c r="L7">
-        <v>0.1641218779854157</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1643165598103877</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1538190184518413</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2583187187233449</v>
+      </c>
+      <c r="P7">
+        <v>0.9354250303515386</v>
+      </c>
+      <c r="Q7">
+        <v>0.8882256612996571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.742045938062887</v>
+        <v>1.672511870531878</v>
       </c>
       <c r="C8">
-        <v>0.1752873861739772</v>
+        <v>0.3909351944249266</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01692787569137444</v>
+        <v>0.07577950894475727</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008798148491639488</v>
+        <v>0.2346026826179042</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0004652236692551659</v>
       </c>
       <c r="I8">
-        <v>3.339618093765523</v>
+        <v>0.0007066655304495129</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2269689658486413</v>
       </c>
       <c r="K8">
-        <v>0.8874797021150869</v>
+        <v>0.2394756488973151</v>
       </c>
       <c r="L8">
-        <v>0.1848574033495538</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1907356435099565</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1754709584471428</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3102425527710722</v>
+      </c>
+      <c r="P8">
+        <v>0.9446929795765158</v>
+      </c>
+      <c r="Q8">
+        <v>0.9216501272825184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9772715906078417</v>
+        <v>2.233891084091169</v>
       </c>
       <c r="C9">
-        <v>0.2384420077161451</v>
+        <v>0.45748910455508</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01790368998759106</v>
+        <v>0.0788614396302485</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.000861993978300248</v>
+        <v>0.2658375185132442</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4.832778931040949E-06</v>
       </c>
       <c r="I9">
-        <v>3.959533119080959</v>
+        <v>0.001258728968381639</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2328154892531202</v>
       </c>
       <c r="K9">
-        <v>1.18162362352237</v>
+        <v>0.2321081628911372</v>
       </c>
       <c r="L9">
-        <v>0.2277198690974416</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2453980433595468</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2177677337067436</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.411962901587664</v>
+      </c>
+      <c r="P9">
+        <v>0.9659626466728355</v>
+      </c>
+      <c r="Q9">
+        <v>1.000690824951747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.159921877248678</v>
+        <v>2.632102603740577</v>
       </c>
       <c r="C10">
-        <v>0.2868304875053127</v>
+        <v>0.5114288111792007</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0187164886922071</v>
+        <v>0.07962146813769788</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0008493840837726368</v>
+        <v>0.2852998647745437</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0004911693577756004</v>
       </c>
       <c r="I10">
-        <v>4.434021670870862</v>
+        <v>0.002506955586081716</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2356274948124906</v>
       </c>
       <c r="K10">
-        <v>1.408969394163478</v>
+        <v>0.2246314752852356</v>
       </c>
       <c r="L10">
-        <v>0.2609375178130335</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2878260574727491</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2376072026478511</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.4781657745713233</v>
+      </c>
+      <c r="P10">
+        <v>0.9939222635345573</v>
+      </c>
+      <c r="Q10">
+        <v>1.048230729023004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.245747617299031</v>
+        <v>2.724876151808701</v>
       </c>
       <c r="C11">
-        <v>0.3094317004243976</v>
+        <v>0.5752816246320265</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01910970648617472</v>
+        <v>0.07332721724683333</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0008437306789367565</v>
+        <v>0.2541257469705087</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01900125269025565</v>
       </c>
       <c r="I11">
-        <v>4.655332191848771</v>
+        <v>0.003359753726720704</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2165407258518854</v>
       </c>
       <c r="K11">
-        <v>1.515573972906481</v>
+        <v>0.1970291675674112</v>
       </c>
       <c r="L11">
-        <v>0.27652036434678</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3077525949935804</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1587166280545489</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.4390778054561366</v>
+      </c>
+      <c r="P11">
+        <v>1.08407741594749</v>
+      </c>
+      <c r="Q11">
+        <v>0.9423279268580558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.278697483608397</v>
+        <v>2.722492213995508</v>
       </c>
       <c r="C12">
-        <v>0.3180896185957636</v>
+        <v>0.6187610399951211</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.01926222947212786</v>
+        <v>0.07538925146267417</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0008415997878961353</v>
+        <v>0.2262556528903517</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05760076775847978</v>
       </c>
       <c r="I12">
-        <v>4.740044947278022</v>
+        <v>0.003409328534702105</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2009726220327082</v>
       </c>
       <c r="K12">
-        <v>1.55646967594754</v>
+        <v>0.1782411010679734</v>
       </c>
       <c r="L12">
-        <v>0.2824980354434672</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.315400670465003</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.103551874577569</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3942902691171923</v>
+      </c>
+      <c r="P12">
+        <v>1.159340689980652</v>
+      </c>
+      <c r="Q12">
+        <v>0.8506971199610547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.271580188502242</v>
+        <v>2.64221259094478</v>
       </c>
       <c r="C13">
-        <v>0.3162203120009508</v>
+        <v>0.6505019479446617</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01922921573019387</v>
+        <v>0.08364333940278534</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.000842058305698587</v>
+        <v>0.1977655601639725</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1132477633887703</v>
       </c>
       <c r="I13">
-        <v>4.721758112222915</v>
+        <v>0.003168906850431696</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1863812670227745</v>
       </c>
       <c r="K13">
-        <v>1.547637437400169</v>
+        <v>0.163940237480098</v>
       </c>
       <c r="L13">
-        <v>0.2812070695276958</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3137487581196936</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06377319595021191</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.342387800231478</v>
+      </c>
+      <c r="P13">
+        <v>1.228353834862517</v>
+      </c>
+      <c r="Q13">
+        <v>0.759721569705107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.248449070423561</v>
+        <v>2.550152657632111</v>
       </c>
       <c r="C14">
-        <v>0.3101419119742275</v>
+        <v>0.6679563825436787</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01912218059599624</v>
+        <v>0.09308117514008174</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0008435551822867733</v>
+        <v>0.1776275387071351</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625163227527651</v>
       </c>
       <c r="I14">
-        <v>4.662282635200313</v>
+        <v>0.002958266897959305</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1766195519070735</v>
       </c>
       <c r="K14">
-        <v>1.51892750409985</v>
+        <v>0.1561285350886585</v>
       </c>
       <c r="L14">
-        <v>0.2770105575098256</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3083796803392573</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04517684318526882</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3033515584886928</v>
+      </c>
+      <c r="P14">
+        <v>1.274666573906089</v>
+      </c>
+      <c r="Q14">
+        <v>0.6965372976395372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.234340902027697</v>
+        <v>2.510270715102934</v>
       </c>
       <c r="C15">
-        <v>0.3064321152190246</v>
+        <v>0.6698798926545635</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0190570976358444</v>
+        <v>0.09572009669467896</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0008444732932968137</v>
+        <v>0.172200918845455</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749913183682423</v>
       </c>
       <c r="I15">
-        <v>4.625974171818285</v>
+        <v>0.002955443127642177</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1742655478562227</v>
       </c>
       <c r="K15">
-        <v>1.501412638072338</v>
+        <v>0.154800654489506</v>
       </c>
       <c r="L15">
-        <v>0.2744503536110443</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3051046810598592</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0418913922035884</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2921106656501777</v>
+      </c>
+      <c r="P15">
+        <v>1.284257273223844</v>
+      </c>
+      <c r="Q15">
+        <v>0.6800739888344935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.154372680191329</v>
+        <v>2.355359062768855</v>
       </c>
       <c r="C16">
-        <v>0.2853665103986032</v>
+        <v>0.6396753024952773</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01869128360961714</v>
+        <v>0.09327268171903214</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0008497550497913004</v>
+        <v>0.1691906062079909</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1620732253412314</v>
       </c>
       <c r="I16">
-        <v>4.419678553667865</v>
+        <v>0.002564404692921407</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1756706827974028</v>
       </c>
       <c r="K16">
-        <v>1.402072325317903</v>
+        <v>0.1603234826083568</v>
       </c>
       <c r="L16">
-        <v>0.2599293799753326</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.286537428110897</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04245816722536588</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2754961149327428</v>
+      </c>
+      <c r="P16">
+        <v>1.254896298676499</v>
+      </c>
+      <c r="Q16">
+        <v>0.6764697624883667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.106053672832928</v>
+        <v>2.285278971620926</v>
       </c>
       <c r="C17">
-        <v>0.2726042013036079</v>
+        <v>0.607311435724057</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01847304607129097</v>
+        <v>0.08580925958780483</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0008530151177384291</v>
+        <v>0.1774496136057166</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242000873040752</v>
       </c>
       <c r="I17">
-        <v>4.294604774684018</v>
+        <v>0.002408382257804043</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1819084700798328</v>
       </c>
       <c r="K17">
-        <v>1.341992424774446</v>
+        <v>0.1685732986674928</v>
       </c>
       <c r="L17">
-        <v>0.251148165160231</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2753156634262268</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0512205188410455</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2830615823279246</v>
+      </c>
+      <c r="P17">
+        <v>1.208090395761218</v>
+      </c>
+      <c r="Q17">
+        <v>0.7069414884596483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.078515798002684</v>
+        <v>2.282205760636998</v>
       </c>
       <c r="C18">
-        <v>0.265318133751947</v>
+        <v>0.5693053721900014</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.01834971471484081</v>
+        <v>0.07668071388830366</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0008548981562247939</v>
+        <v>0.197593977519098</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07135497684457448</v>
       </c>
       <c r="I18">
-        <v>4.223171881350112</v>
+        <v>0.002140410985928654</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1935767861311319</v>
       </c>
       <c r="K18">
-        <v>1.307731165126171</v>
+        <v>0.1814225465019721</v>
       </c>
       <c r="L18">
-        <v>0.2461412795485387</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2689192916200582</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07589175188198993</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.31360133240549</v>
+      </c>
+      <c r="P18">
+        <v>1.142326175978894</v>
+      </c>
+      <c r="Q18">
+        <v>0.7740303797196759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.069233958389361</v>
+        <v>2.327608133419744</v>
       </c>
       <c r="C19">
-        <v>0.2628601339431498</v>
+        <v>0.53402755624316</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01830832647564495</v>
+        <v>0.07212295547557313</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0008555371406759431</v>
+        <v>0.2255398048684683</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02616010172126693</v>
       </c>
       <c r="I19">
-        <v>4.199069375416627</v>
+        <v>0.002320394556496019</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2084755624720316</v>
       </c>
       <c r="K19">
-        <v>1.29617959867204</v>
+        <v>0.1977435213940435</v>
       </c>
       <c r="L19">
-        <v>0.2444533067867098</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2667632131291526</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1236710912070293</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.3619173759685452</v>
+      </c>
+      <c r="P19">
+        <v>1.074108291807931</v>
+      </c>
+      <c r="Q19">
+        <v>0.8644669588363882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.111170646708445</v>
+        <v>2.518186288593768</v>
       </c>
       <c r="C20">
-        <v>0.2739570323166163</v>
+        <v>0.5013217114108102</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01849604916379022</v>
+        <v>0.07914792610110233</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0008526672704793903</v>
+        <v>0.2769511863007708</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0002947045994203812</v>
       </c>
       <c r="I20">
-        <v>4.307865857633175</v>
+        <v>0.00285412417545583</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2332090310307748</v>
       </c>
       <c r="K20">
-        <v>1.348357014699246</v>
+        <v>0.224305915392538</v>
       </c>
       <c r="L20">
-        <v>0.2520783419557944</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2765041422600163</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2325179828161197</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.4595976775609856</v>
+      </c>
+      <c r="P20">
+        <v>0.9914327025346239</v>
+      </c>
+      <c r="Q20">
+        <v>1.025365509929344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.255230563142675</v>
+        <v>2.839185006970183</v>
       </c>
       <c r="C21">
-        <v>0.3119244645598371</v>
+        <v>0.5359115197125845</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01915351907923757</v>
+        <v>0.08192337572899966</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0008431152608216944</v>
+        <v>0.3002157730463537</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0007017707718967037</v>
       </c>
       <c r="I21">
-        <v>4.679726367563177</v>
+        <v>0.003966692261048621</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2396920249421441</v>
       </c>
       <c r="K21">
-        <v>1.527345418808181</v>
+        <v>0.2239057885013978</v>
       </c>
       <c r="L21">
-        <v>0.2782410149830099</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3099538262486305</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2655212308504815</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5229547156954695</v>
+      </c>
+      <c r="P21">
+        <v>1.001216344430333</v>
+      </c>
+      <c r="Q21">
+        <v>1.088556414815059</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.352032936186873</v>
+        <v>3.047465691630407</v>
       </c>
       <c r="C22">
-        <v>0.3373254126648249</v>
+        <v>0.5590531937748722</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.01960444734773326</v>
+        <v>0.08310696031093556</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.000836929270336294</v>
+        <v>0.3146711443233272</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001183321806976445</v>
       </c>
       <c r="I22">
-        <v>4.928113080068755</v>
+        <v>0.004556194120997503</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2435966585250355</v>
       </c>
       <c r="K22">
-        <v>1.64743363208558</v>
+        <v>0.2232877587970599</v>
       </c>
       <c r="L22">
-        <v>0.2957922616485718</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3324183379740404</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2810019004235187</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.5605910415576218</v>
+      </c>
+      <c r="P22">
+        <v>1.010325891935338</v>
+      </c>
+      <c r="Q22">
+        <v>1.127563849432818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.300104938639436</v>
+        <v>2.939857008178706</v>
       </c>
       <c r="C23">
-        <v>0.3237094428686476</v>
+        <v>0.5451967819779782</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01936174740279739</v>
+        <v>0.08255799163474276</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.0008402263674381416</v>
+        <v>0.3080321691755614</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0009148954698240397</v>
       </c>
       <c r="I23">
-        <v>4.795010819879423</v>
+        <v>0.003946477460150533</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2420591489182584</v>
       </c>
       <c r="K23">
-        <v>1.583030881057852</v>
+        <v>0.2243830198739971</v>
       </c>
       <c r="L23">
-        <v>0.2863802271367604</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3203689631663096</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2724927859571125</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.5408439918599228</v>
+      </c>
+      <c r="P23">
+        <v>1.003540276846948</v>
+      </c>
+      <c r="Q23">
+        <v>1.110171285811845</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.108856515163382</v>
+        <v>2.525738335492065</v>
       </c>
       <c r="C24">
-        <v>0.27334525916595</v>
+        <v>0.4953083973805121</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.01848564282965093</v>
+        <v>0.08033597640733081</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0008528245048374927</v>
+        <v>0.2819205296099696</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0001983472702813405</v>
       </c>
       <c r="I24">
-        <v>4.301869055632494</v>
+        <v>0.002401561432838761</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2358313422158247</v>
       </c>
       <c r="K24">
-        <v>1.345478718207715</v>
+        <v>0.227813130054038</v>
       </c>
       <c r="L24">
-        <v>0.25165768026379</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2759666600513526</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2407527140840671</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.4654515625327136</v>
+      </c>
+      <c r="P24">
+        <v>0.9823294464322601</v>
+      </c>
+      <c r="Q24">
+        <v>1.041389271825352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9120967910859008</v>
+        <v>2.077313870642513</v>
       </c>
       <c r="C25">
-        <v>0.221056262250741</v>
+        <v>0.4416552369587237</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.01762369200231095</v>
+        <v>0.07791061951530942</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.0008667233507159683</v>
+        <v>0.25541631253963</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.708629213537094E-05</v>
       </c>
       <c r="I25">
-        <v>3.788899531097584</v>
+        <v>0.001382468711544682</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2301684340905226</v>
       </c>
       <c r="K25">
-        <v>1.100305994137472</v>
+        <v>0.2326713444151203</v>
       </c>
       <c r="L25">
-        <v>0.2158513095031509</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2302534844779345</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2066610940555975</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.3839958766569112</v>
+      </c>
+      <c r="P25">
+        <v>0.9622643845890479</v>
+      </c>
+      <c r="Q25">
+        <v>0.9729029378225533</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.753846907932854</v>
+        <v>1.722374144256946</v>
       </c>
       <c r="C2">
-        <v>0.398683412774588</v>
+        <v>0.3959764736482327</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07630125784142638</v>
+        <v>0.07392146523206122</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2398553478786241</v>
+        <v>0.2101817932446082</v>
       </c>
       <c r="H2">
-        <v>0.0003274954233996041</v>
+        <v>0.0002501385888050711</v>
       </c>
       <c r="I2">
-        <v>0.0004623756996040562</v>
+        <v>0.0006082108622873506</v>
       </c>
       <c r="J2">
-        <v>0.2282278047489754</v>
+        <v>0.2601249935060537</v>
       </c>
       <c r="K2">
-        <v>0.2391331832471693</v>
+        <v>0.2251013621240308</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1275036454191181</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05131767284758837</v>
       </c>
       <c r="N2">
-        <v>0.181068735597016</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.324661852293076</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9455480549895796</v>
+        <v>0.1861356775127732</v>
       </c>
       <c r="Q2">
-        <v>0.9355064367932044</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3215173594362568</v>
+      </c>
+      <c r="R2">
+        <v>0.9540773922942094</v>
+      </c>
+      <c r="S2">
+        <v>0.8948728488533959</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.528661937681591</v>
+        <v>1.50605958015808</v>
       </c>
       <c r="C3">
-        <v>0.371593244788059</v>
+        <v>0.3645431843678608</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07506365424849548</v>
+        <v>0.07296712489823598</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.2284204788453508</v>
+        <v>0.2008389966793942</v>
       </c>
       <c r="H3">
-        <v>0.0007893208867801871</v>
+        <v>0.0006330221204392528</v>
       </c>
       <c r="I3">
-        <v>0.000446869020333196</v>
+        <v>0.0005045227171023292</v>
       </c>
       <c r="J3">
-        <v>0.2265806778814436</v>
+        <v>0.2578674459429067</v>
       </c>
       <c r="K3">
-        <v>0.2429105302479364</v>
+        <v>0.2296568854323553</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1323650527715969</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0512899799930624</v>
       </c>
       <c r="N3">
-        <v>0.164087874691397</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2838632169648889</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9380042643987778</v>
+        <v>0.1688755903981729</v>
       </c>
       <c r="Q3">
-        <v>0.9075681415137495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2815303473256705</v>
+      </c>
+      <c r="R3">
+        <v>0.9401468406002707</v>
+      </c>
+      <c r="S3">
+        <v>0.8728907378509376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.389690594959745</v>
+        <v>1.372324863867618</v>
       </c>
       <c r="C4">
-        <v>0.3549987557973537</v>
+        <v>0.3453745914622885</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07428485248093253</v>
+        <v>0.07236382693896637</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2216578263083306</v>
+        <v>0.1953414545419179</v>
       </c>
       <c r="H4">
-        <v>0.001187785616063586</v>
+        <v>0.0009681327444542864</v>
       </c>
       <c r="I4">
-        <v>0.0005645878852060804</v>
+        <v>0.0005513876128593331</v>
       </c>
       <c r="J4">
-        <v>0.2257664078584369</v>
+        <v>0.2565478604752229</v>
       </c>
       <c r="K4">
-        <v>0.2454418973001182</v>
+        <v>0.2326097194695027</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1355169001878203</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05172634757581118</v>
       </c>
       <c r="N4">
-        <v>0.1536801296876789</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2587336033939991</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9340598195311784</v>
+        <v>0.1583146668156061</v>
       </c>
       <c r="Q4">
-        <v>0.8913675026802252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2568751920034522</v>
+      </c>
+      <c r="R4">
+        <v>0.9323804153156985</v>
+      </c>
+      <c r="S4">
+        <v>0.8600780403673696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.332025036022031</v>
+        <v>1.316745360310932</v>
       </c>
       <c r="C5">
-        <v>0.3485980215724851</v>
+        <v>0.3379633281587076</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07393939987550002</v>
+        <v>0.07209116707740115</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.2186796811368268</v>
+        <v>0.1928826258325174</v>
       </c>
       <c r="H5">
-        <v>0.001379109618798835</v>
+        <v>0.001129923787606013</v>
       </c>
       <c r="I5">
-        <v>0.0007104675110531922</v>
+        <v>0.000676971566536011</v>
       </c>
       <c r="J5">
-        <v>0.2253348454111475</v>
+        <v>0.2558736916939495</v>
       </c>
       <c r="K5">
-        <v>0.2463155825385392</v>
+        <v>0.23364972480449</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1367278805893051</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05197992014980013</v>
       </c>
       <c r="N5">
-        <v>0.1495007551024088</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2483906418500794</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9330274907752241</v>
+        <v>0.1540781261837196</v>
       </c>
       <c r="Q5">
-        <v>0.8840834642809767</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2467198596887883</v>
+      </c>
+      <c r="R5">
+        <v>0.9298310536397878</v>
+      </c>
+      <c r="S5">
+        <v>0.8541239503938272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.32139080227401</v>
+        <v>1.306459036919364</v>
       </c>
       <c r="C6">
-        <v>0.3479703705663155</v>
+        <v>0.3371881799211991</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07385348699799543</v>
+        <v>0.07201841390593522</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.2178418419086654</v>
+        <v>0.1921418126608003</v>
       </c>
       <c r="H6">
-        <v>0.001414170296033523</v>
+        <v>0.001159685968215918</v>
       </c>
       <c r="I6">
-        <v>0.0008261987143241001</v>
+        <v>0.0008059652204392975</v>
       </c>
       <c r="J6">
-        <v>0.2250853250867095</v>
+        <v>0.2555761647079819</v>
       </c>
       <c r="K6">
-        <v>0.2462077848807844</v>
+        <v>0.2335792204213316</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1367912987368065</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05198228770290036</v>
       </c>
       <c r="N6">
-        <v>0.148878208818509</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2465714090069895</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9333658914424419</v>
+        <v>0.1534470992478632</v>
       </c>
       <c r="Q6">
-        <v>0.8817732695655849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2449315336230633</v>
+      </c>
+      <c r="R6">
+        <v>0.9299379409901292</v>
+      </c>
+      <c r="S6">
+        <v>0.8520497623174919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.386041326037287</v>
+        <v>1.367674237914258</v>
       </c>
       <c r="C7">
-        <v>0.356104831452086</v>
+        <v>0.34606332339267</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07420363225910531</v>
+        <v>0.07229468321486987</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.2206694899552843</v>
+        <v>0.1965165411380312</v>
       </c>
       <c r="H7">
-        <v>0.001194292092604687</v>
+        <v>0.0009756774102330779</v>
       </c>
       <c r="I7">
-        <v>0.0007965144776331812</v>
+        <v>0.0008271681378593243</v>
       </c>
       <c r="J7">
-        <v>0.2252674098540055</v>
+        <v>0.2527859630889253</v>
       </c>
       <c r="K7">
-        <v>0.2447557371816487</v>
+        <v>0.2317159018879735</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1350292693182578</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05154176676291478</v>
       </c>
       <c r="N7">
-        <v>0.1538190184518413</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2583187187233449</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9354250303515386</v>
+        <v>0.1584217967023278</v>
       </c>
       <c r="Q7">
-        <v>0.8882256612996571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2563040609646343</v>
+      </c>
+      <c r="R7">
+        <v>0.9343390085341952</v>
+      </c>
+      <c r="S7">
+        <v>0.8550324019008571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.672511870531878</v>
+        <v>1.640672247162627</v>
       </c>
       <c r="C8">
-        <v>0.3909351944249266</v>
+        <v>0.3852557731131014</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07577950894475727</v>
+        <v>0.07353126482303196</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.2346026826179042</v>
+        <v>0.2128226137231053</v>
       </c>
       <c r="H8">
-        <v>0.0004652236692551659</v>
+        <v>0.0003669855825491064</v>
       </c>
       <c r="I8">
-        <v>0.0007066655304495129</v>
+        <v>0.0008793609388950685</v>
       </c>
       <c r="J8">
-        <v>0.2269689658486413</v>
+        <v>0.2481538441277777</v>
       </c>
       <c r="K8">
-        <v>0.2394756488973151</v>
+        <v>0.2249943446984926</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1283294069094616</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05077597504658016</v>
       </c>
       <c r="N8">
-        <v>0.1754709584471428</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3102425527710722</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9446929795765158</v>
+        <v>0.1803329129138049</v>
       </c>
       <c r="Q8">
-        <v>0.9216501272825184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3068505421548764</v>
+      </c>
+      <c r="R8">
+        <v>0.9530295090856384</v>
+      </c>
+      <c r="S8">
+        <v>0.8766892729888411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.233891084091169</v>
+        <v>2.177657482548909</v>
       </c>
       <c r="C9">
-        <v>0.45748910455508</v>
+        <v>0.4626457191087923</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0788614396302485</v>
+        <v>0.07592210761225981</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.2658375185132442</v>
+        <v>0.2406892200411832</v>
       </c>
       <c r="H9">
-        <v>4.832778931040949E-06</v>
+        <v>9.194333038475833E-06</v>
       </c>
       <c r="I9">
-        <v>0.001258728968381639</v>
+        <v>0.001491845543411863</v>
       </c>
       <c r="J9">
-        <v>0.2328154892531202</v>
+        <v>0.2519107081935275</v>
       </c>
       <c r="K9">
-        <v>0.2321081628911372</v>
+        <v>0.2151379236958544</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1175695912047612</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05339290742607794</v>
       </c>
       <c r="N9">
-        <v>0.2177677337067436</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.411962901587664</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9659626466728355</v>
+        <v>0.2233945138068947</v>
       </c>
       <c r="Q9">
-        <v>1.000690824951747</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4062462638761772</v>
+      </c>
+      <c r="R9">
+        <v>0.9913954450827447</v>
+      </c>
+      <c r="S9">
+        <v>0.9374609918051817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.632102603740577</v>
+        <v>2.55184049953624</v>
       </c>
       <c r="C10">
-        <v>0.5114288111792007</v>
+        <v>0.5219774172935558</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07962146813769788</v>
+        <v>0.07637000813661032</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.2852998647745437</v>
+        <v>0.2709614125763906</v>
       </c>
       <c r="H10">
-        <v>0.0004911693577756004</v>
+        <v>0.0004780764126008918</v>
       </c>
       <c r="I10">
-        <v>0.002506955586081716</v>
+        <v>0.0026921018845254</v>
       </c>
       <c r="J10">
-        <v>0.2356274948124906</v>
+        <v>0.2358536492952581</v>
       </c>
       <c r="K10">
-        <v>0.2246314752852356</v>
+        <v>0.2048105584124329</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1090984557263202</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.05592146357214034</v>
       </c>
       <c r="N10">
-        <v>0.2376072026478511</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.4781657745713233</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9939222635345573</v>
+        <v>0.2434739874470182</v>
       </c>
       <c r="Q10">
-        <v>1.048230729023004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.4698254947656721</v>
+      </c>
+      <c r="R10">
+        <v>1.036098988354169</v>
+      </c>
+      <c r="S10">
+        <v>0.9607354691417243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.724876151808701</v>
+        <v>2.634031943034643</v>
       </c>
       <c r="C11">
-        <v>0.5752816246320265</v>
+        <v>0.5804196247961499</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07332721724683333</v>
+        <v>0.07081351378498568</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.2541257469705087</v>
+        <v>0.269688871007574</v>
       </c>
       <c r="H11">
-        <v>0.01900125269025565</v>
+        <v>0.01897285727609344</v>
       </c>
       <c r="I11">
-        <v>0.003359753726720704</v>
+        <v>0.003586311079775584</v>
       </c>
       <c r="J11">
-        <v>0.2165407258518854</v>
+        <v>0.1906807837275224</v>
       </c>
       <c r="K11">
-        <v>0.1970291675674112</v>
+        <v>0.1788113489844729</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09847387191111956</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04808494741126346</v>
       </c>
       <c r="N11">
-        <v>0.1587166280545489</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4390778054561366</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1.08407741594749</v>
+        <v>0.1626869094458954</v>
       </c>
       <c r="Q11">
-        <v>0.9423279268580558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4295514449283644</v>
+      </c>
+      <c r="R11">
+        <v>1.140476607044008</v>
+      </c>
+      <c r="S11">
+        <v>0.8427402623623266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.722492213995508</v>
+        <v>2.63186163925235</v>
       </c>
       <c r="C12">
-        <v>0.6187610399951211</v>
+        <v>0.6189235774873225</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07538925146267417</v>
+        <v>0.07317313725141528</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.2262556528903517</v>
+        <v>0.255252036586306</v>
       </c>
       <c r="H12">
-        <v>0.05760076775847978</v>
+        <v>0.05757302361930527</v>
       </c>
       <c r="I12">
-        <v>0.003409328534702105</v>
+        <v>0.003617033157985894</v>
       </c>
       <c r="J12">
-        <v>0.2009726220327082</v>
+        <v>0.1702156669657064</v>
       </c>
       <c r="K12">
-        <v>0.1782411010679734</v>
+        <v>0.1627241789991736</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09285826559937949</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04201283087762953</v>
       </c>
       <c r="N12">
-        <v>0.103551874577569</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.3942902691171923</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1.159340689980652</v>
+        <v>0.1062110923172099</v>
       </c>
       <c r="Q12">
-        <v>0.8506971199610547</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3849744564113635</v>
+      </c>
+      <c r="R12">
+        <v>1.221516807820294</v>
+      </c>
+      <c r="S12">
+        <v>0.7537128275941711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.64221259094478</v>
+        <v>2.562972853614383</v>
       </c>
       <c r="C13">
-        <v>0.6505019479446617</v>
+        <v>0.6476244354329879</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08364333940278534</v>
+        <v>0.08164192723613795</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.1977655601639725</v>
+        <v>0.2235706484556275</v>
       </c>
       <c r="H13">
-        <v>0.1132477633887703</v>
+        <v>0.1132308671737405</v>
       </c>
       <c r="I13">
-        <v>0.003168906850431696</v>
+        <v>0.003396391872047211</v>
       </c>
       <c r="J13">
-        <v>0.1863812670227745</v>
+        <v>0.164831009215316</v>
       </c>
       <c r="K13">
-        <v>0.163940237480098</v>
+        <v>0.1520969915392278</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0897269546266215</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03690100278685904</v>
       </c>
       <c r="N13">
-        <v>0.06377319595021191</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.342387800231478</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.228353834862517</v>
+        <v>0.06551239103583484</v>
       </c>
       <c r="Q13">
-        <v>0.759721569705107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3345934612243227</v>
+      </c>
+      <c r="R13">
+        <v>1.287005685356235</v>
+      </c>
+      <c r="S13">
+        <v>0.6792971475291267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.550152657632111</v>
+        <v>2.483667145311188</v>
       </c>
       <c r="C14">
-        <v>0.6679563825436787</v>
+        <v>0.6639111991963773</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09308117514008174</v>
+        <v>0.09127156263960856</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1776275387071351</v>
+        <v>0.1950226620068705</v>
       </c>
       <c r="H14">
-        <v>0.1625163227527651</v>
+        <v>0.1625080528899616</v>
       </c>
       <c r="I14">
-        <v>0.002958266897959305</v>
+        <v>0.003228766501274016</v>
       </c>
       <c r="J14">
-        <v>0.1766195519070735</v>
+        <v>0.1661704096813104</v>
       </c>
       <c r="K14">
-        <v>0.1561285350886585</v>
+        <v>0.1469641717448047</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08842266544553068</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03387666569688363</v>
       </c>
       <c r="N14">
-        <v>0.04517684318526882</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3033515584886928</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.274666573906089</v>
+        <v>0.04645632833905822</v>
       </c>
       <c r="Q14">
-        <v>0.6965372976395372</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2970879005600011</v>
+      </c>
+      <c r="R14">
+        <v>1.32618113913162</v>
+      </c>
+      <c r="S14">
+        <v>0.6325868896735756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.510270715102934</v>
+        <v>2.448966656420339</v>
       </c>
       <c r="C15">
-        <v>0.6698798926545635</v>
+        <v>0.6660347922508834</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09572009669467896</v>
+        <v>0.09401410541926403</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.172200918845455</v>
+        <v>0.1851006918148741</v>
       </c>
       <c r="H15">
-        <v>0.1749913183682423</v>
+        <v>0.1749861143111673</v>
       </c>
       <c r="I15">
-        <v>0.002955443127642177</v>
+        <v>0.003265471607247328</v>
       </c>
       <c r="J15">
-        <v>0.1742655478562227</v>
+        <v>0.168685104858433</v>
       </c>
       <c r="K15">
-        <v>0.154800654489506</v>
+        <v>0.1463899145033425</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08836799058460088</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03324945865336204</v>
       </c>
       <c r="N15">
-        <v>0.0418913922035884</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2921106656501777</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.284257273223844</v>
+        <v>0.04310333395684651</v>
       </c>
       <c r="Q15">
-        <v>0.6800739888344935</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2864277499965553</v>
+      </c>
+      <c r="R15">
+        <v>1.332147953869224</v>
+      </c>
+      <c r="S15">
+        <v>0.6223295248481264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.355359062768855</v>
+        <v>2.311551247126943</v>
       </c>
       <c r="C16">
-        <v>0.6396753024952773</v>
+        <v>0.6395092565598475</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09327268171903214</v>
+        <v>0.09204980786173955</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.1691906062079909</v>
+        <v>0.1621286556184529</v>
       </c>
       <c r="H16">
-        <v>0.1620732253412314</v>
+        <v>0.1620730933197621</v>
       </c>
       <c r="I16">
-        <v>0.002564404692921407</v>
+        <v>0.002952211363226098</v>
       </c>
       <c r="J16">
-        <v>0.1756706827974028</v>
+        <v>0.1907381329350457</v>
       </c>
       <c r="K16">
-        <v>0.1603234826083568</v>
+        <v>0.1529626861686459</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0911022980845706</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03427692701493701</v>
       </c>
       <c r="N16">
-        <v>0.04245816722536588</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2754961149327428</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.254896298676499</v>
+        <v>0.04395464865172194</v>
       </c>
       <c r="Q16">
-        <v>0.6764697624883667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2716617027967061</v>
+      </c>
+      <c r="R16">
+        <v>1.287479046995159</v>
+      </c>
+      <c r="S16">
+        <v>0.6377873191553647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.285278971620926</v>
+        <v>2.246456117609227</v>
       </c>
       <c r="C17">
-        <v>0.607311435724057</v>
+        <v>0.6094824032061297</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08580925958780483</v>
+        <v>0.08468607658454452</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.1774496136057166</v>
+        <v>0.1615089987620948</v>
       </c>
       <c r="H17">
-        <v>0.1242000873040752</v>
+        <v>0.1241958310154985</v>
       </c>
       <c r="I17">
-        <v>0.002408382257804043</v>
+        <v>0.002829533817306107</v>
       </c>
       <c r="J17">
-        <v>0.1819084700798328</v>
+        <v>0.2065189228074331</v>
       </c>
       <c r="K17">
-        <v>0.1685732986674928</v>
+        <v>0.160775170973487</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09425171014990852</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03644309007965418</v>
       </c>
       <c r="N17">
-        <v>0.0512205188410455</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2830615823279246</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.208090395761218</v>
+        <v>0.05316080286766578</v>
       </c>
       <c r="Q17">
-        <v>0.7069414884596483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.27973157079267</v>
+      </c>
+      <c r="R17">
+        <v>1.234906589955926</v>
+      </c>
+      <c r="S17">
+        <v>0.6730824635914701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.282205760636998</v>
+        <v>2.240765702947101</v>
       </c>
       <c r="C18">
-        <v>0.5693053721900014</v>
+        <v>0.5739361459229997</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07668071388830366</v>
+        <v>0.07533208459840779</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.197593977519098</v>
+        <v>0.1761549603604564</v>
       </c>
       <c r="H18">
-        <v>0.07135497684457448</v>
+        <v>0.07134955269075505</v>
       </c>
       <c r="I18">
-        <v>0.002140410985928654</v>
+        <v>0.002522374829283081</v>
       </c>
       <c r="J18">
-        <v>0.1935767861311319</v>
+        <v>0.2217277948031793</v>
       </c>
       <c r="K18">
-        <v>0.1814225465019721</v>
+        <v>0.1719725012037276</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09869208555878028</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.040218365072338</v>
       </c>
       <c r="N18">
-        <v>0.07589175188198993</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.31360133240549</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1.142326175978894</v>
+        <v>0.07858458116345801</v>
       </c>
       <c r="Q18">
-        <v>0.7740303797196759</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3099768194179191</v>
+      </c>
+      <c r="R18">
+        <v>1.168385750444912</v>
+      </c>
+      <c r="S18">
+        <v>0.7365496363750736</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.327608133419744</v>
+        <v>2.278657109235269</v>
       </c>
       <c r="C19">
-        <v>0.53402755624316</v>
+        <v>0.5413670591921402</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07212295547557313</v>
+        <v>0.07022572223210544</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.2255398048684683</v>
+        <v>0.1999538588582368</v>
       </c>
       <c r="H19">
-        <v>0.02616010172126693</v>
+        <v>0.02615964866332376</v>
       </c>
       <c r="I19">
-        <v>0.002320394556496019</v>
+        <v>0.002723371079460968</v>
       </c>
       <c r="J19">
-        <v>0.2084755624720316</v>
+        <v>0.2364993716430064</v>
       </c>
       <c r="K19">
-        <v>0.1977435213940435</v>
+        <v>0.1856510969685115</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1039925550575713</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04524774960255051</v>
       </c>
       <c r="N19">
-        <v>0.1236710912070293</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.3619173759685452</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>1.074108291807931</v>
+        <v>0.1274846790414799</v>
       </c>
       <c r="Q19">
-        <v>0.8644669588363882</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3574318898638253</v>
+      </c>
+      <c r="R19">
+        <v>1.102066298153247</v>
+      </c>
+      <c r="S19">
+        <v>0.8176506159800141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.518186288593768</v>
+        <v>2.44836153141506</v>
       </c>
       <c r="C20">
-        <v>0.5013217114108102</v>
+        <v>0.5124007945093751</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07914792610110233</v>
+        <v>0.07596466032861837</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2769511863007708</v>
+        <v>0.2519479811613365</v>
       </c>
       <c r="H20">
-        <v>0.0002947045994203812</v>
+        <v>0.000295375774667761</v>
       </c>
       <c r="I20">
-        <v>0.00285412417545583</v>
+        <v>0.003229529884025695</v>
       </c>
       <c r="J20">
-        <v>0.2332090310307748</v>
+        <v>0.2489381392832257</v>
       </c>
       <c r="K20">
-        <v>0.224305915392538</v>
+        <v>0.2062652848327993</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1107925116184241</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05467272066579199</v>
       </c>
       <c r="N20">
-        <v>0.2325179828161197</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4595976775609856</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9914327025346239</v>
+        <v>0.238431683868825</v>
       </c>
       <c r="Q20">
-        <v>1.025365509929344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4525558457943006</v>
+      </c>
+      <c r="R20">
+        <v>1.027159874929197</v>
+      </c>
+      <c r="S20">
+        <v>0.9518171421880339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.839185006970183</v>
+        <v>2.72792296829607</v>
       </c>
       <c r="C21">
-        <v>0.5359115197125845</v>
+        <v>0.5425316794224386</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08192337572899966</v>
+        <v>0.07853157845416447</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.3002157730463537</v>
+        <v>0.3271748038400943</v>
       </c>
       <c r="H21">
-        <v>0.0007017707718967037</v>
+        <v>0.0006322907441701497</v>
       </c>
       <c r="I21">
-        <v>0.003966692261048621</v>
+        <v>0.004178037706786597</v>
       </c>
       <c r="J21">
-        <v>0.2396920249421441</v>
+        <v>0.1932437399302955</v>
       </c>
       <c r="K21">
-        <v>0.2239057885013978</v>
+        <v>0.1985765149378906</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.104769579787952</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.05706559865995153</v>
       </c>
       <c r="N21">
-        <v>0.2655212308504815</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5229547156954695</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1.001216344430333</v>
+        <v>0.2713806974615522</v>
       </c>
       <c r="Q21">
-        <v>1.088556414815059</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5104213367293795</v>
+      </c>
+      <c r="R21">
+        <v>1.062723226686742</v>
+      </c>
+      <c r="S21">
+        <v>0.9562435050571025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.047465691630407</v>
+        <v>2.907388342777665</v>
       </c>
       <c r="C22">
-        <v>0.5590531937748722</v>
+        <v>0.5618742378873094</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08310696031093556</v>
+        <v>0.07970779780248627</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.3146711443233272</v>
+        <v>0.3834289931965316</v>
       </c>
       <c r="H22">
-        <v>0.001183321806976445</v>
+        <v>0.001036070091792296</v>
       </c>
       <c r="I22">
-        <v>0.004556194120997503</v>
+        <v>0.00455418979117006</v>
       </c>
       <c r="J22">
-        <v>0.2435966585250355</v>
+        <v>0.1635606898476603</v>
       </c>
       <c r="K22">
-        <v>0.2232877587970599</v>
+        <v>0.1929734743584497</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1008679034072575</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.05858623470783719</v>
       </c>
       <c r="N22">
-        <v>0.2810019004235187</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5605910415576218</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>1.010325891935338</v>
+        <v>0.2866769768006634</v>
       </c>
       <c r="Q22">
-        <v>1.127563849432818</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5441987480304178</v>
+      </c>
+      <c r="R22">
+        <v>1.090109775078574</v>
+      </c>
+      <c r="S22">
+        <v>0.9541015746566757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.939857008178706</v>
+        <v>2.818042903678361</v>
       </c>
       <c r="C23">
-        <v>0.5451967819779782</v>
+        <v>0.5512204157452061</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08255799163474276</v>
+        <v>0.07911646556231666</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.3080321691755614</v>
+        <v>0.347500081647965</v>
       </c>
       <c r="H23">
-        <v>0.0009148954698240397</v>
+        <v>0.0008148303501486209</v>
       </c>
       <c r="I23">
-        <v>0.003946477460150533</v>
+        <v>0.004005007971776386</v>
       </c>
       <c r="J23">
-        <v>0.2420591489182584</v>
+        <v>0.183622090836252</v>
       </c>
       <c r="K23">
-        <v>0.2243830198739971</v>
+        <v>0.1971985189495307</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1033204420904035</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.05830583645897569</v>
       </c>
       <c r="N23">
-        <v>0.2724927859571125</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5408439918599228</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>1.003540276846948</v>
+        <v>0.2783438090673087</v>
       </c>
       <c r="Q23">
-        <v>1.110171285811845</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5269601815404314</v>
+      </c>
+      <c r="R23">
+        <v>1.071529477039874</v>
+      </c>
+      <c r="S23">
+        <v>0.9635110870695911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.525738335492065</v>
+        <v>2.455288548907959</v>
       </c>
       <c r="C24">
-        <v>0.4953083973805121</v>
+        <v>0.5064334906498971</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08033597640733081</v>
+        <v>0.07704502729393869</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2819205296099696</v>
+        <v>0.2560915875456828</v>
       </c>
       <c r="H24">
-        <v>0.0001983472702813405</v>
+        <v>0.0001989248009054423</v>
       </c>
       <c r="I24">
-        <v>0.002401561432838761</v>
+        <v>0.002675972697566031</v>
       </c>
       <c r="J24">
-        <v>0.2358313422158247</v>
+        <v>0.2518538573379416</v>
       </c>
       <c r="K24">
-        <v>0.227813130054038</v>
+        <v>0.2093192552523711</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1119681027978228</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.05579735410536912</v>
       </c>
       <c r="N24">
-        <v>0.2407527140840671</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.4654515625327136</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9823294464322601</v>
+        <v>0.2468297846749579</v>
       </c>
       <c r="Q24">
-        <v>1.041389271825352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4583268011094006</v>
+      </c>
+      <c r="R24">
+        <v>1.017686752284391</v>
+      </c>
+      <c r="S24">
+        <v>0.9667191976581648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.077313870642513</v>
+        <v>2.029448046441473</v>
       </c>
       <c r="C25">
-        <v>0.4416552369587237</v>
+        <v>0.444609878294898</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07791061951530942</v>
+        <v>0.07515127159864665</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.25541631253963</v>
+        <v>0.2281607183042595</v>
       </c>
       <c r="H25">
-        <v>1.708629213537094E-05</v>
+        <v>8.086767083304025E-06</v>
       </c>
       <c r="I25">
-        <v>0.001382468711544682</v>
+        <v>0.001702874928169784</v>
       </c>
       <c r="J25">
-        <v>0.2301684340905226</v>
+        <v>0.2543906122727364</v>
       </c>
       <c r="K25">
-        <v>0.2326713444151203</v>
+        <v>0.2168528726975474</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.119998526686933</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0520211188129327</v>
       </c>
       <c r="N25">
-        <v>0.2066610940555975</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.3839958766569112</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9622643845890479</v>
+        <v>0.2121178229758414</v>
       </c>
       <c r="Q25">
-        <v>0.9729029378225533</v>
+        <v>0.3791652801520229</v>
+      </c>
+      <c r="R25">
+        <v>0.9822830510126153</v>
+      </c>
+      <c r="S25">
+        <v>0.9178712203845549</v>
       </c>
     </row>
   </sheetData>
